--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_6_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_6_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>784178.01021949</v>
+        <v>713914.8800811217</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>410103.5693545243</v>
+        <v>410103.5693545245</v>
       </c>
     </row>
     <row r="8">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.62406031006308</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114.7736570458747</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>171.025583927401</v>
+        <v>14.69027772918528</v>
       </c>
       <c r="D3" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>143.5062320835493</v>
@@ -758,7 +758,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>90.07428171382939</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>242.2819443339098</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,22 +980,22 @@
         <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>22.97689470253074</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>8.749388433808024</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>11.02353771150028</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>99.07907767104388</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>167.4979332891071</v>
+      </c>
+      <c r="Y8" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>120.6173531697731</v>
       </c>
       <c r="F9" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
         <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>2.96667120039927</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>5.521978971826058</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>63.98849131156453</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.7676097105165</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0100701439972</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.3117380016203</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.5597788807159</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.0913913621372</v>
       </c>
       <c r="T11" t="n">
         <v>218.2060931489365</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3907911210793</v>
+        <v>106.0057631533303</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>135.4415306281902</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>66.47641768350113</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>58.57982147197338</v>
+        <v>58.57982147197337</v>
       </c>
       <c r="S12" t="n">
-        <v>65.1568281878295</v>
+        <v>158.1571708882373</v>
       </c>
       <c r="T12" t="n">
         <v>196.0379550173603</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6189086739872</v>
+        <v>62.6534530288903</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>129.3738296711512</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0932620502043</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.025670721027</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>278.4216116880472</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>1.756411662979934</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0100701439972</v>
+        <v>260.3725872485247</v>
       </c>
       <c r="I14" t="n">
         <v>163.3117380016203</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.55977888071592</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3907911210793</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,10 +1688,10 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
-        <v>171.025583927401</v>
+        <v>144.5016589104947</v>
       </c>
       <c r="D15" t="n">
-        <v>67.44361133705711</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
         <v>156.0334337071738</v>
@@ -1700,13 +1700,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>135.4415306281902</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>104.844715398324</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>66.47641768350113</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>58.57982147197337</v>
       </c>
       <c r="S15" t="n">
         <v>158.1571708882373</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>196.0379550173603</v>
       </c>
       <c r="U15" t="n">
         <v>224.6189086739872</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>119.5582486089965</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>67.94683103037728</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.36123928117394</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>68.75547895480305</v>
       </c>
       <c r="F17" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.7676097105165</v>
@@ -1864,7 +1864,7 @@
         <v>327.0100701439972</v>
       </c>
       <c r="I17" t="n">
-        <v>163.3117380016203</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>181.0913913621372</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.2060931489365</v>
       </c>
       <c r="U17" t="n">
-        <v>50.75314754578731</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>37.44474352171062</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
         <v>156.0334337071738</v>
@@ -1940,10 +1940,10 @@
         <v>135.4415306281902</v>
       </c>
       <c r="H18" t="n">
-        <v>104.844715398324</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>66.47641768350114</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>58.5798214719734</v>
+        <v>58.57982147197337</v>
       </c>
       <c r="S18" t="n">
-        <v>158.1571708882374</v>
+        <v>158.1571708882373</v>
       </c>
       <c r="T18" t="n">
-        <v>196.0379550173603</v>
+        <v>34.0724993722641</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>224.6189086739872</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>64.56279930352346</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>25.48526062110763</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>213.8588123845238</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>286.025670721027</v>
       </c>
       <c r="V19" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2086,22 +2086,22 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>296.9581053176605</v>
+        <v>413.7676097105165</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0100701439972</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>163.3117380016203</v>
+        <v>136.9751582256637</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.2060931489365</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2168,16 +2168,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>32.72949474730186</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>135.4415306281902</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>104.844715398324</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>58.57982147197339</v>
+        <v>32.05589645506707</v>
       </c>
       <c r="S21" t="n">
-        <v>158.1571708882374</v>
+        <v>158.1571708882373</v>
       </c>
       <c r="T21" t="n">
         <v>196.0379550173603</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>129.349139007139</v>
+        <v>50.5340206169822</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="23">
@@ -2320,16 +2320,16 @@
         <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>26.6967208932442</v>
       </c>
       <c r="D23" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.9798381690774</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>59.43904190056468</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>135.2917907515943</v>
       </c>
       <c r="H24" t="n">
-        <v>103.3985434322534</v>
+        <v>103.3985434322537</v>
       </c>
       <c r="I24" t="n">
-        <v>61.32090000246038</v>
+        <v>61.32090000246014</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,16 +2490,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>86.90531127057524</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.48578169199548</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>201.2454563970682</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15.49828673660342</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>324.1439237596927</v>
+        <v>315.9451670028605</v>
       </c>
       <c r="I26" t="n">
         <v>152.5223218189376</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>55.9798381690774</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.6870717512358</v>
@@ -2651,10 +2651,10 @@
         <v>135.2917907515943</v>
       </c>
       <c r="H27" t="n">
-        <v>103.3985434322537</v>
+        <v>103.3985434322534</v>
       </c>
       <c r="I27" t="n">
-        <v>61.32090000246014</v>
+        <v>61.32090000246038</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>128.3927968208128</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V28" t="n">
-        <v>252.9363510669392</v>
+        <v>95.31032463304041</v>
       </c>
       <c r="W28" t="n">
         <v>286.0925768874155</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
         <v>383.1180357552875</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>55.9798381690774</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3684020854885</v>
+        <v>53.4741063142061</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
@@ -2857,10 +2857,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>97.93768723699246</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I30" t="n">
-        <v>61.32090000246014</v>
+        <v>61.32090000246038</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>128.4665504535167</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0188232547115</v>
+        <v>274.0049734125491</v>
       </c>
       <c r="V31" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>308.5122670442872</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>55.9798381690774</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>124.2359659528937</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>135.2917907515943</v>
       </c>
       <c r="H33" t="n">
-        <v>103.3985434322537</v>
+        <v>103.3985434322534</v>
       </c>
       <c r="I33" t="n">
         <v>61.32090000246038</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.28281404613688</v>
+        <v>49.28281404613734</v>
       </c>
       <c r="S33" t="n">
         <v>155.3758183558542</v>
@@ -3195,7 +3195,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>146.9746241731992</v>
+        <v>37.98365562940382</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.82858972593754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,16 +3268,16 @@
         <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>209.9062812407479</v>
+        <v>167.1818019062601</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>413.4877467656314</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
         <v>386.6870717512358</v>
@@ -3365,7 +3365,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I36" t="n">
-        <v>61.32090000246038</v>
+        <v>61.32090000246014</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.28281404613733</v>
+        <v>49.28281404613734</v>
       </c>
       <c r="S36" t="n">
         <v>155.3758183558542</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>55.25629954478082</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>3.89787763556453</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.4877467656314</v>
@@ -3523,7 +3523,7 @@
         <v>324.1439237596927</v>
       </c>
       <c r="I38" t="n">
-        <v>152.5223218189376</v>
+        <v>115.9987094233471</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>145.8246065857932</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
         <v>386.6870717512358</v>
@@ -3635,7 +3635,7 @@
         <v>155.3758183558542</v>
       </c>
       <c r="T39" t="n">
-        <v>195.4343982340639</v>
+        <v>195.4343982340636</v>
       </c>
       <c r="U39" t="n">
         <v>224.6090573663165</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3705,25 +3705,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.41377105177701</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>169.7298152399164</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>95.31032463304041</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>206.6019973628333</v>
       </c>
       <c r="C41" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>144.4403383236814</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.9798381690774</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.714014505568</v>
@@ -3802,10 +3802,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I42" t="n">
-        <v>61.32090000246014</v>
+        <v>61.32090000246058</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.28281404613734</v>
+        <v>49.28281404613733</v>
       </c>
       <c r="S42" t="n">
         <v>155.3758183558542</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U43" t="n">
-        <v>128.3927968208128</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.0925768874155</v>
+        <v>215.5689245323097</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>95.95355219836992</v>
+        <v>223.2809076063847</v>
       </c>
       <c r="F44" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.97983816907737</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>251.3684020854885</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>188.7729333976798</v>
       </c>
       <c r="V46" t="n">
-        <v>213.9925949565497</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.9427045873282</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="C2" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="D2" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E2" t="n">
         <v>21.9427045873282</v>
@@ -4333,10 +4333,10 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K2" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494321</v>
       </c>
       <c r="L2" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M2" t="n">
         <v>586.1689795623909</v>
@@ -4360,22 +4360,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T2" t="n">
-        <v>871.9179392690158</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U2" t="n">
-        <v>871.9179392690158</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V2" t="n">
-        <v>594.8635884189123</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W2" t="n">
-        <v>317.8092375688087</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X2" t="n">
-        <v>40.75488671870505</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y2" t="n">
-        <v>40.75488671870505</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>981.2022424513852</v>
+        <v>578.300946117182</v>
       </c>
       <c r="C3" t="n">
-        <v>808.4491273732024</v>
+        <v>563.4622817442676</v>
       </c>
       <c r="D3" t="n">
-        <v>660.8608207321463</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="E3" t="n">
-        <v>503.251291735001</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="F3" t="n">
-        <v>358.2955017516178</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="G3" t="n">
-        <v>220.8983197263226</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H3" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I3" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J3" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K3" t="n">
-        <v>161.1846636454791</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L3" t="n">
-        <v>409.2622680873972</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M3" t="n">
-        <v>630.6851405540924</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N3" t="n">
-        <v>630.6851405540924</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O3" t="n">
-        <v>898.5647595314132</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P3" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S3" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T3" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="U3" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="V3" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="W3" t="n">
-        <v>1097.13522936641</v>
+        <v>578.300946117182</v>
       </c>
       <c r="X3" t="n">
-        <v>1097.13522936641</v>
+        <v>578.300946117182</v>
       </c>
       <c r="Y3" t="n">
-        <v>1097.13522936641</v>
+        <v>578.300946117182</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I4" t="n">
-        <v>111.6789115850847</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J4" t="n">
         <v>21.9427045873282</v>
@@ -4494,7 +4494,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L4" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M4" t="n">
         <v>108.7246574309869</v>
@@ -4527,13 +4527,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="W4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C5" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D5" t="n">
         <v>21.9427045873282</v>
@@ -4591,28 +4591,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S5" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T5" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U5" t="n">
-        <v>1097.13522936641</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="V5" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W5" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X5" t="n">
-        <v>853.1057571376391</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y5" t="n">
-        <v>576.0514062875354</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>282.0731362973006</v>
+        <v>759.4243813704612</v>
       </c>
       <c r="C6" t="n">
-        <v>109.3200212191178</v>
+        <v>586.6712662922785</v>
       </c>
       <c r="D6" t="n">
-        <v>109.3200212191178</v>
+        <v>439.0829596512223</v>
       </c>
       <c r="E6" t="n">
-        <v>109.3200212191178</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="F6" t="n">
-        <v>109.3200212191178</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="G6" t="n">
-        <v>109.3200212191178</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H6" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I6" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>29.33601543381311</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K6" t="n">
-        <v>168.5779744919641</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L6" t="n">
-        <v>416.6555789338821</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M6" t="n">
-        <v>549.5069725377946</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="N6" t="n">
-        <v>549.5069725377946</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O6" t="n">
-        <v>817.3865915151152</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P6" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q6" t="n">
         <v>1097.13522936641</v>
@@ -4673,25 +4673,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S6" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T6" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="U6" t="n">
-        <v>870.2087878843887</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="V6" t="n">
-        <v>870.2087878843887</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="W6" t="n">
-        <v>861.3710217896331</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="X6" t="n">
-        <v>654.8441231952106</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="Y6" t="n">
-        <v>449.1156874188611</v>
+        <v>926.4669324920217</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G7" t="n">
-        <v>33.07759116460122</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H7" t="n">
-        <v>33.07759116460122</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I7" t="n">
         <v>21.9427045873282</v>
@@ -4731,7 +4731,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L7" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M7" t="n">
         <v>108.7246574309869</v>
@@ -4764,13 +4764,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="W7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>399.7428683723877</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="C8" t="n">
-        <v>399.7428683723877</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="D8" t="n">
-        <v>399.7428683723877</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="E8" t="n">
-        <v>399.7428683723877</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="F8" t="n">
-        <v>399.7428683723877</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G8" t="n">
-        <v>299.6629919369898</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H8" t="n">
-        <v>22.6086410868862</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I8" t="n">
-        <v>22.6086410868862</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J8" t="n">
         <v>21.9427045873282</v>
@@ -4819,37 +4819,37 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O8" t="n">
-        <v>984.9899813536999</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P8" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q8" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>953.8515700725949</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>953.8515700725949</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T8" t="n">
-        <v>953.8515700725949</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U8" t="n">
-        <v>953.8515700725949</v>
+        <v>745.907174392252</v>
       </c>
       <c r="V8" t="n">
-        <v>676.7972192224913</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="W8" t="n">
-        <v>399.7428683723877</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="X8" t="n">
-        <v>399.7428683723877</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="Y8" t="n">
-        <v>399.7428683723877</v>
+        <v>22.60864108688619</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>756.4277437943006</v>
+        <v>625.0870020074991</v>
       </c>
       <c r="C9" t="n">
-        <v>583.6746287161177</v>
+        <v>625.0870020074991</v>
       </c>
       <c r="D9" t="n">
-        <v>436.0863220750615</v>
+        <v>625.0870020074991</v>
       </c>
       <c r="E9" t="n">
-        <v>278.4767930779162</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F9" t="n">
-        <v>133.521003094533</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G9" t="n">
-        <v>133.521003094533</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H9" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I9" t="n">
         <v>21.9427045873282</v>
@@ -4892,13 +4892,13 @@
         <v>409.2622680873972</v>
       </c>
       <c r="M9" t="n">
-        <v>630.6851405540924</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="N9" t="n">
-        <v>630.6851405540924</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O9" t="n">
-        <v>898.5647595314132</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P9" t="n">
         <v>1097.13522936641</v>
@@ -4907,28 +4907,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S9" t="n">
-        <v>926.4669324920219</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T9" t="n">
-        <v>923.470294915861</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="U9" t="n">
-        <v>923.470294915861</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="V9" t="n">
-        <v>923.470294915861</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="W9" t="n">
-        <v>923.470294915861</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="X9" t="n">
-        <v>923.470294915861</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="Y9" t="n">
-        <v>923.470294915861</v>
+        <v>625.0870020074991</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="C10" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="D10" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="E10" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="F10" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="G10" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="H10" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="I10" t="n">
         <v>21.9427045873282</v>
@@ -4968,7 +4968,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L10" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M10" t="n">
         <v>108.7246574309869</v>
@@ -4986,28 +4986,28 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R10" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="S10" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="T10" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="U10" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="V10" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="W10" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="X10" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.9427045873282</v>
+        <v>27.52046112452624</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>737.5814456974989</v>
+        <v>990.1766755643066</v>
       </c>
       <c r="C11" t="n">
-        <v>737.5814456974989</v>
+        <v>990.1766755643066</v>
       </c>
       <c r="D11" t="n">
-        <v>377.3746449352783</v>
+        <v>629.969874802086</v>
       </c>
       <c r="E11" t="n">
-        <v>377.3746449352783</v>
+        <v>629.969874802086</v>
       </c>
       <c r="F11" t="n">
-        <v>377.3746449352783</v>
+        <v>629.969874802086</v>
       </c>
       <c r="G11" t="n">
-        <v>377.3746449352783</v>
+        <v>212.0227942864127</v>
       </c>
       <c r="H11" t="n">
-        <v>47.06144276962452</v>
+        <v>212.0227942864127</v>
       </c>
       <c r="I11" t="n">
-        <v>47.06144276962452</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="J11" t="n">
-        <v>137.7570291265965</v>
+        <v>137.757029126597</v>
       </c>
       <c r="K11" t="n">
-        <v>395.9627954019088</v>
+        <v>395.962795401909</v>
       </c>
       <c r="L11" t="n">
-        <v>768.2589587052587</v>
+        <v>768.2589587052589</v>
       </c>
       <c r="M11" t="n">
         <v>1197.722468029211</v>
@@ -5059,34 +5059,34 @@
         <v>1969.929307769078</v>
       </c>
       <c r="P11" t="n">
-        <v>2232.826612716458</v>
+        <v>2232.826612716459</v>
       </c>
       <c r="Q11" t="n">
         <v>2353.072138481226</v>
       </c>
       <c r="R11" t="n">
-        <v>2353.072138481226</v>
+        <v>2278.769331531008</v>
       </c>
       <c r="S11" t="n">
-        <v>2353.072138481226</v>
+        <v>2095.848734195516</v>
       </c>
       <c r="T11" t="n">
-        <v>2132.66194338129</v>
+        <v>1875.438539095581</v>
       </c>
       <c r="U11" t="n">
-        <v>1878.731851339796</v>
+        <v>1768.362010657873</v>
       </c>
       <c r="V11" t="n">
-        <v>1546.88011242816</v>
+        <v>1768.362010657873</v>
       </c>
       <c r="W11" t="n">
-        <v>1192.809287175075</v>
+        <v>1768.362010657873</v>
       </c>
       <c r="X11" t="n">
-        <v>1192.809287175075</v>
+        <v>1768.362010657873</v>
       </c>
       <c r="Y11" t="n">
-        <v>802.21628540615</v>
+        <v>1377.769008888948</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.116080119393</v>
+        <v>806.7778103665537</v>
       </c>
       <c r="C12" t="n">
-        <v>564.3629650412101</v>
+        <v>634.0246952883708</v>
       </c>
       <c r="D12" t="n">
-        <v>416.7746584001541</v>
+        <v>486.4363886473147</v>
       </c>
       <c r="E12" t="n">
-        <v>259.1651294030088</v>
+        <v>328.8268596501695</v>
       </c>
       <c r="F12" t="n">
-        <v>114.2093394196257</v>
+        <v>183.8710696667864</v>
       </c>
       <c r="G12" t="n">
-        <v>114.2093394196257</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="H12" t="n">
-        <v>114.2093394196257</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="I12" t="n">
-        <v>47.06144276962452</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="J12" t="n">
         <v>108.8611578587506</v>
@@ -5126,13 +5126,13 @@
         <v>341.092327492145</v>
       </c>
       <c r="L12" t="n">
-        <v>714.2054011338194</v>
+        <v>480.2273788915876</v>
       </c>
       <c r="M12" t="n">
-        <v>1202.410953541628</v>
+        <v>968.4329312993968</v>
       </c>
       <c r="N12" t="n">
-        <v>1718.936586224144</v>
+        <v>1484.958563981913</v>
       </c>
       <c r="O12" t="n">
         <v>1889.850587719948</v>
@@ -5147,25 +5147,25 @@
         <v>2293.900601640849</v>
       </c>
       <c r="S12" t="n">
-        <v>2228.085623673344</v>
+        <v>2134.145883571923</v>
       </c>
       <c r="T12" t="n">
-        <v>2030.067487292172</v>
+        <v>1936.127747190751</v>
       </c>
       <c r="U12" t="n">
-        <v>1803.179700752791</v>
+        <v>1872.841430999952</v>
       </c>
       <c r="V12" t="n">
-        <v>1568.928457278392</v>
+        <v>1638.590187525553</v>
       </c>
       <c r="W12" t="n">
-        <v>1316.413965611725</v>
+        <v>1386.075695858886</v>
       </c>
       <c r="X12" t="n">
-        <v>1109.887067017303</v>
+        <v>1179.548797264464</v>
       </c>
       <c r="Y12" t="n">
-        <v>904.1586312409535</v>
+        <v>973.8203614881141</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>617.2102128798003</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="C13" t="n">
-        <v>617.2102128798003</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="D13" t="n">
-        <v>466.6995396328111</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="E13" t="n">
-        <v>318.2403232962463</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="F13" t="n">
-        <v>187.5596872647804</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="G13" t="n">
-        <v>187.5596872647804</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="H13" t="n">
-        <v>187.5596872647804</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="I13" t="n">
-        <v>47.06144276962452</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="J13" t="n">
-        <v>47.06144276962452</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="K13" t="n">
-        <v>88.52550135650138</v>
+        <v>88.52550135650141</v>
       </c>
       <c r="L13" t="n">
         <v>197.3888359084144</v>
       </c>
       <c r="M13" t="n">
-        <v>322.7628580499604</v>
+        <v>322.7628580499605</v>
       </c>
       <c r="N13" t="n">
-        <v>450.2970280645392</v>
+        <v>450.2970280645393</v>
       </c>
       <c r="O13" t="n">
-        <v>552.7588795211516</v>
+        <v>552.7588795211517</v>
       </c>
       <c r="P13" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798006</v>
       </c>
       <c r="Q13" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798006</v>
       </c>
       <c r="R13" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798006</v>
       </c>
       <c r="S13" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798006</v>
       </c>
       <c r="T13" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798006</v>
       </c>
       <c r="U13" t="n">
-        <v>617.2102128798003</v>
+        <v>328.2953939696723</v>
       </c>
       <c r="V13" t="n">
-        <v>617.2102128798003</v>
+        <v>328.2953939696723</v>
       </c>
       <c r="W13" t="n">
-        <v>617.2102128798003</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="X13" t="n">
-        <v>617.2102128798003</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="Y13" t="n">
-        <v>617.2102128798003</v>
+        <v>47.06144276962453</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>914.8021654843114</v>
+        <v>1633.62806624495</v>
       </c>
       <c r="C14" t="n">
-        <v>544.1101496469956</v>
+        <v>1633.62806624495</v>
       </c>
       <c r="D14" t="n">
-        <v>544.1101496469956</v>
+        <v>1273.421265482729</v>
       </c>
       <c r="E14" t="n">
-        <v>544.1101496469956</v>
+        <v>886.4333505783982</v>
       </c>
       <c r="F14" t="n">
-        <v>544.1101496469956</v>
+        <v>475.0254076687609</v>
       </c>
       <c r="G14" t="n">
-        <v>542.3359964520664</v>
+        <v>475.0254076687609</v>
       </c>
       <c r="H14" t="n">
         <v>212.0227942864127</v>
       </c>
       <c r="I14" t="n">
-        <v>47.06144276962452</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="J14" t="n">
         <v>137.757029126597</v>
       </c>
       <c r="K14" t="n">
-        <v>395.9627954019089</v>
+        <v>395.962795401909</v>
       </c>
       <c r="L14" t="n">
-        <v>768.2589587052585</v>
+        <v>768.2589587052588</v>
       </c>
       <c r="M14" t="n">
-        <v>1197.72246802921</v>
+        <v>1197.722468029211</v>
       </c>
       <c r="N14" t="n">
-        <v>1618.617970932029</v>
+        <v>1618.61797093203</v>
       </c>
       <c r="O14" t="n">
         <v>1969.929307769078</v>
       </c>
       <c r="P14" t="n">
-        <v>2232.826612716458</v>
+        <v>2232.826612716459</v>
       </c>
       <c r="Q14" t="n">
-        <v>2353.072138481226</v>
+        <v>2353.072138481227</v>
       </c>
       <c r="R14" t="n">
-        <v>2278.769331531008</v>
+        <v>2353.072138481227</v>
       </c>
       <c r="S14" t="n">
-        <v>2278.769331531008</v>
+        <v>2353.072138481227</v>
       </c>
       <c r="T14" t="n">
-        <v>2278.769331531008</v>
+        <v>2353.072138481227</v>
       </c>
       <c r="U14" t="n">
-        <v>2024.839239489514</v>
+        <v>2353.072138481227</v>
       </c>
       <c r="V14" t="n">
-        <v>1692.987500577878</v>
+        <v>2021.220399569591</v>
       </c>
       <c r="W14" t="n">
-        <v>1692.987500577878</v>
+        <v>2021.220399569591</v>
       </c>
       <c r="X14" t="n">
-        <v>1692.987500577878</v>
+        <v>2021.220399569591</v>
       </c>
       <c r="Y14" t="n">
-        <v>1302.394498808953</v>
+        <v>2021.220399569591</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>900.3660132395199</v>
+        <v>643.1763400179715</v>
       </c>
       <c r="C15" t="n">
-        <v>727.6128981613372</v>
+        <v>497.2150683912091</v>
       </c>
       <c r="D15" t="n">
-        <v>659.4880382249158</v>
+        <v>349.626761750153</v>
       </c>
       <c r="E15" t="n">
-        <v>501.8785092277706</v>
+        <v>192.0172327530077</v>
       </c>
       <c r="F15" t="n">
-        <v>356.9227192443875</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="G15" t="n">
-        <v>220.1130923472256</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="H15" t="n">
-        <v>114.2093394196257</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="I15" t="n">
-        <v>47.06144276962452</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="J15" t="n">
-        <v>47.06144276962452</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="K15" t="n">
-        <v>261.8008521287446</v>
+        <v>107.1143052499143</v>
       </c>
       <c r="L15" t="n">
-        <v>634.9139257704189</v>
+        <v>480.2273788915886</v>
       </c>
       <c r="M15" t="n">
-        <v>1123.119478178228</v>
+        <v>968.4329312993978</v>
       </c>
       <c r="N15" t="n">
-        <v>1639.645110860744</v>
+        <v>1484.958563981914</v>
       </c>
       <c r="O15" t="n">
-        <v>2044.537134598779</v>
+        <v>1889.850587719949</v>
       </c>
       <c r="P15" t="n">
-        <v>2353.072138481226</v>
+        <v>2198.385591602396</v>
       </c>
       <c r="Q15" t="n">
-        <v>2353.072138481226</v>
+        <v>2353.072138481227</v>
       </c>
       <c r="R15" t="n">
-        <v>2353.072138481226</v>
+        <v>2293.90060164085</v>
       </c>
       <c r="S15" t="n">
-        <v>2193.317420412299</v>
+        <v>2134.145883571923</v>
       </c>
       <c r="T15" t="n">
-        <v>2193.317420412299</v>
+        <v>1936.127747190751</v>
       </c>
       <c r="U15" t="n">
-        <v>1966.429633872918</v>
+        <v>1709.23996065137</v>
       </c>
       <c r="V15" t="n">
-        <v>1732.178390398519</v>
+        <v>1474.988717176971</v>
       </c>
       <c r="W15" t="n">
-        <v>1479.663898731852</v>
+        <v>1222.474225510304</v>
       </c>
       <c r="X15" t="n">
-        <v>1273.13700013743</v>
+        <v>1015.947326915881</v>
       </c>
       <c r="Y15" t="n">
-        <v>1067.40856436108</v>
+        <v>810.2188911395319</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.06144276962452</v>
+        <v>617.2102128798006</v>
       </c>
       <c r="C16" t="n">
-        <v>47.06144276962452</v>
+        <v>548.5770502228538</v>
       </c>
       <c r="D16" t="n">
-        <v>47.06144276962452</v>
+        <v>398.0663769758646</v>
       </c>
       <c r="E16" t="n">
-        <v>47.06144276962452</v>
+        <v>249.6071606392997</v>
       </c>
       <c r="F16" t="n">
-        <v>47.06144276962452</v>
+        <v>101.971785477881</v>
       </c>
       <c r="G16" t="n">
-        <v>47.06144276962452</v>
+        <v>101.971785477881</v>
       </c>
       <c r="H16" t="n">
-        <v>47.06144276962452</v>
+        <v>101.971785477881</v>
       </c>
       <c r="I16" t="n">
-        <v>47.06144276962452</v>
+        <v>101.971785477881</v>
       </c>
       <c r="J16" t="n">
-        <v>47.06144276962452</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="K16" t="n">
-        <v>88.52550135650138</v>
+        <v>88.52550135650142</v>
       </c>
       <c r="L16" t="n">
         <v>197.3888359084144</v>
       </c>
       <c r="M16" t="n">
-        <v>322.7628580499604</v>
+        <v>322.7628580499605</v>
       </c>
       <c r="N16" t="n">
-        <v>450.2970280645392</v>
+        <v>450.2970280645393</v>
       </c>
       <c r="O16" t="n">
-        <v>552.7588795211516</v>
+        <v>552.7588795211517</v>
       </c>
       <c r="P16" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798006</v>
       </c>
       <c r="Q16" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798006</v>
       </c>
       <c r="R16" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798006</v>
       </c>
       <c r="S16" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798006</v>
       </c>
       <c r="T16" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798006</v>
       </c>
       <c r="U16" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798006</v>
       </c>
       <c r="V16" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798006</v>
       </c>
       <c r="W16" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798006</v>
       </c>
       <c r="X16" t="n">
-        <v>388.7856068875687</v>
+        <v>617.2102128798006</v>
       </c>
       <c r="Y16" t="n">
-        <v>167.8273504554796</v>
+        <v>617.2102128798006</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2118.885735543929</v>
+        <v>1595.670520792713</v>
       </c>
       <c r="C17" t="n">
-        <v>2118.885735543929</v>
+        <v>1224.978504955398</v>
       </c>
       <c r="D17" t="n">
-        <v>1758.678934781708</v>
+        <v>864.7717041931769</v>
       </c>
       <c r="E17" t="n">
-        <v>1371.691019877377</v>
+        <v>795.3217254509516</v>
       </c>
       <c r="F17" t="n">
-        <v>960.2830769677398</v>
+        <v>795.3217254509516</v>
       </c>
       <c r="G17" t="n">
-        <v>542.3359964520665</v>
+        <v>377.3746449352783</v>
       </c>
       <c r="H17" t="n">
-        <v>212.0227942864128</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="I17" t="n">
-        <v>47.06144276962452</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="J17" t="n">
         <v>137.757029126597</v>
       </c>
       <c r="K17" t="n">
-        <v>395.9627954019093</v>
+        <v>395.962795401909</v>
       </c>
       <c r="L17" t="n">
-        <v>768.2589587052589</v>
+        <v>768.2589587052588</v>
       </c>
       <c r="M17" t="n">
         <v>1197.722468029211</v>
@@ -5533,34 +5533,34 @@
         <v>1969.929307769078</v>
       </c>
       <c r="P17" t="n">
-        <v>2232.826612716458</v>
+        <v>2232.826612716459</v>
       </c>
       <c r="Q17" t="n">
-        <v>2353.072138481226</v>
+        <v>2353.072138481227</v>
       </c>
       <c r="R17" t="n">
-        <v>2353.072138481226</v>
+        <v>2353.072138481227</v>
       </c>
       <c r="S17" t="n">
-        <v>2170.151541145734</v>
+        <v>2170.151541145735</v>
       </c>
       <c r="T17" t="n">
-        <v>2170.151541145734</v>
+        <v>1949.741346045799</v>
       </c>
       <c r="U17" t="n">
-        <v>2118.885735543929</v>
+        <v>1949.741346045799</v>
       </c>
       <c r="V17" t="n">
-        <v>2118.885735543929</v>
+        <v>1949.741346045799</v>
       </c>
       <c r="W17" t="n">
-        <v>2118.885735543929</v>
+        <v>1595.670520792713</v>
       </c>
       <c r="X17" t="n">
-        <v>2118.885735543929</v>
+        <v>1595.670520792713</v>
       </c>
       <c r="Y17" t="n">
-        <v>2118.885735543929</v>
+        <v>1595.670520792713</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>870.0641265573519</v>
+        <v>806.7778103665537</v>
       </c>
       <c r="C18" t="n">
-        <v>697.3110114791691</v>
+        <v>634.0246952883708</v>
       </c>
       <c r="D18" t="n">
-        <v>659.488038224916</v>
+        <v>486.4363886473147</v>
       </c>
       <c r="E18" t="n">
-        <v>501.8785092277707</v>
+        <v>328.8268596501695</v>
       </c>
       <c r="F18" t="n">
-        <v>356.9227192443875</v>
+        <v>183.8710696667864</v>
       </c>
       <c r="G18" t="n">
-        <v>220.1130923472257</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="H18" t="n">
-        <v>114.2093394196257</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="I18" t="n">
-        <v>47.06144276962452</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="J18" t="n">
-        <v>47.06144276962452</v>
+        <v>108.8611578587506</v>
       </c>
       <c r="K18" t="n">
-        <v>279.2926124030189</v>
+        <v>341.092327492145</v>
       </c>
       <c r="L18" t="n">
-        <v>652.4056860446931</v>
+        <v>714.2054011338194</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.611238452502</v>
+        <v>968.4329312993978</v>
       </c>
       <c r="N18" t="n">
-        <v>1657.136871135018</v>
+        <v>1484.958563981914</v>
       </c>
       <c r="O18" t="n">
-        <v>2062.028894873053</v>
+        <v>1889.850587719949</v>
       </c>
       <c r="P18" t="n">
-        <v>2353.072138481226</v>
+        <v>2198.385591602396</v>
       </c>
       <c r="Q18" t="n">
-        <v>2353.072138481226</v>
+        <v>2353.072138481227</v>
       </c>
       <c r="R18" t="n">
-        <v>2293.900601640849</v>
+        <v>2293.90060164085</v>
       </c>
       <c r="S18" t="n">
-        <v>2134.145883571922</v>
+        <v>2134.145883571923</v>
       </c>
       <c r="T18" t="n">
-        <v>1936.12774719075</v>
+        <v>2099.729217539333</v>
       </c>
       <c r="U18" t="n">
-        <v>1936.12774719075</v>
+        <v>1872.841430999952</v>
       </c>
       <c r="V18" t="n">
-        <v>1701.876503716351</v>
+        <v>1638.590187525553</v>
       </c>
       <c r="W18" t="n">
-        <v>1449.362012049684</v>
+        <v>1386.075695858886</v>
       </c>
       <c r="X18" t="n">
-        <v>1242.835113455262</v>
+        <v>1179.548797264464</v>
       </c>
       <c r="Y18" t="n">
-        <v>1037.106677678912</v>
+        <v>973.8203614881141</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>72.80413026569283</v>
+        <v>112.2763915610624</v>
       </c>
       <c r="C19" t="n">
-        <v>72.80413026569283</v>
+        <v>112.2763915610624</v>
       </c>
       <c r="D19" t="n">
-        <v>72.80413026569283</v>
+        <v>112.2763915610624</v>
       </c>
       <c r="E19" t="n">
-        <v>72.80413026569283</v>
+        <v>112.2763915610624</v>
       </c>
       <c r="F19" t="n">
-        <v>72.80413026569283</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="G19" t="n">
-        <v>72.80413026569283</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="H19" t="n">
-        <v>72.80413026569283</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="I19" t="n">
-        <v>47.06144276962452</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="J19" t="n">
-        <v>47.06144276962452</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="K19" t="n">
-        <v>88.52550135650135</v>
+        <v>88.52550135650142</v>
       </c>
       <c r="L19" t="n">
-        <v>197.3888359084143</v>
+        <v>197.3888359084144</v>
       </c>
       <c r="M19" t="n">
-        <v>322.7628580499604</v>
+        <v>322.7628580499605</v>
       </c>
       <c r="N19" t="n">
-        <v>450.2970280645391</v>
+        <v>450.2970280645393</v>
       </c>
       <c r="O19" t="n">
-        <v>552.7588795211514</v>
+        <v>552.7588795211517</v>
       </c>
       <c r="P19" t="n">
-        <v>617.2102128798001</v>
+        <v>617.2102128798006</v>
       </c>
       <c r="Q19" t="n">
-        <v>617.2102128798001</v>
+        <v>617.2102128798006</v>
       </c>
       <c r="R19" t="n">
-        <v>617.2102128798001</v>
+        <v>617.2102128798006</v>
       </c>
       <c r="S19" t="n">
-        <v>617.2102128798001</v>
+        <v>401.1912104711907</v>
       </c>
       <c r="T19" t="n">
-        <v>617.2102128798001</v>
+        <v>401.1912104711907</v>
       </c>
       <c r="U19" t="n">
-        <v>328.2953939696718</v>
+        <v>112.2763915610624</v>
       </c>
       <c r="V19" t="n">
-        <v>72.80413026569283</v>
+        <v>112.2763915610624</v>
       </c>
       <c r="W19" t="n">
-        <v>72.80413026569283</v>
+        <v>112.2763915610624</v>
       </c>
       <c r="X19" t="n">
-        <v>72.80413026569283</v>
+        <v>112.2763915610624</v>
       </c>
       <c r="Y19" t="n">
-        <v>72.80413026569283</v>
+        <v>112.2763915610624</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1624.39363733807</v>
+        <v>2132.661943381291</v>
       </c>
       <c r="C20" t="n">
-        <v>1253.701621500755</v>
+        <v>1761.969927543975</v>
       </c>
       <c r="D20" t="n">
-        <v>1253.701621500755</v>
+        <v>1401.763126781755</v>
       </c>
       <c r="E20" t="n">
-        <v>1253.701621500755</v>
+        <v>1014.775211877424</v>
       </c>
       <c r="F20" t="n">
-        <v>842.2936785911174</v>
+        <v>603.3672689677865</v>
       </c>
       <c r="G20" t="n">
-        <v>542.3359964520664</v>
+        <v>185.4201884521132</v>
       </c>
       <c r="H20" t="n">
-        <v>212.0227942864127</v>
+        <v>185.4201884521132</v>
       </c>
       <c r="I20" t="n">
-        <v>47.06144276962452</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="J20" t="n">
         <v>137.757029126597</v>
       </c>
       <c r="K20" t="n">
-        <v>395.9627954019091</v>
+        <v>395.962795401909</v>
       </c>
       <c r="L20" t="n">
-        <v>768.2589587052587</v>
+        <v>768.2589587052589</v>
       </c>
       <c r="M20" t="n">
         <v>1197.722468029211</v>
@@ -5770,34 +5770,34 @@
         <v>1969.929307769078</v>
       </c>
       <c r="P20" t="n">
-        <v>2232.826612716458</v>
+        <v>2232.826612716459</v>
       </c>
       <c r="Q20" t="n">
-        <v>2353.072138481226</v>
+        <v>2353.072138481227</v>
       </c>
       <c r="R20" t="n">
-        <v>2353.072138481226</v>
+        <v>2353.072138481227</v>
       </c>
       <c r="S20" t="n">
-        <v>2353.072138481226</v>
+        <v>2353.072138481227</v>
       </c>
       <c r="T20" t="n">
-        <v>2353.072138481226</v>
+        <v>2132.661943381291</v>
       </c>
       <c r="U20" t="n">
-        <v>2353.072138481226</v>
+        <v>2132.661943381291</v>
       </c>
       <c r="V20" t="n">
-        <v>2353.072138481226</v>
+        <v>2132.661943381291</v>
       </c>
       <c r="W20" t="n">
-        <v>1999.001313228141</v>
+        <v>2132.661943381291</v>
       </c>
       <c r="X20" t="n">
-        <v>1624.39363733807</v>
+        <v>2132.661943381291</v>
       </c>
       <c r="Y20" t="n">
-        <v>1624.39363733807</v>
+        <v>2132.661943381291</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>643.1763400179706</v>
+        <v>669.968183469392</v>
       </c>
       <c r="C21" t="n">
-        <v>470.4232249397878</v>
+        <v>497.2150683912091</v>
       </c>
       <c r="D21" t="n">
-        <v>322.8349182987316</v>
+        <v>349.626761750153</v>
       </c>
       <c r="E21" t="n">
-        <v>289.7748225943863</v>
+        <v>192.0172327530077</v>
       </c>
       <c r="F21" t="n">
-        <v>289.7748225943863</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="G21" t="n">
-        <v>152.9651956972245</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="H21" t="n">
-        <v>47.06144276962452</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="I21" t="n">
-        <v>47.06144276962452</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="J21" t="n">
-        <v>108.8611578587506</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="K21" t="n">
-        <v>341.0923274921449</v>
+        <v>279.292612403019</v>
       </c>
       <c r="L21" t="n">
-        <v>714.2054011338191</v>
+        <v>652.4056860446933</v>
       </c>
       <c r="M21" t="n">
-        <v>968.4329312993971</v>
+        <v>1123.119478178229</v>
       </c>
       <c r="N21" t="n">
-        <v>1484.958563981913</v>
+        <v>1639.645110860745</v>
       </c>
       <c r="O21" t="n">
-        <v>1889.850587719948</v>
+        <v>2044.53713459878</v>
       </c>
       <c r="P21" t="n">
-        <v>2198.385591602395</v>
+        <v>2353.072138481227</v>
       </c>
       <c r="Q21" t="n">
-        <v>2353.072138481226</v>
+        <v>2353.072138481227</v>
       </c>
       <c r="R21" t="n">
-        <v>2293.900601640849</v>
+        <v>2320.69244509227</v>
       </c>
       <c r="S21" t="n">
-        <v>2134.145883571922</v>
+        <v>2160.937727023344</v>
       </c>
       <c r="T21" t="n">
-        <v>1936.12774719075</v>
+        <v>1962.919590642172</v>
       </c>
       <c r="U21" t="n">
-        <v>1709.239960651369</v>
+        <v>1736.031804102791</v>
       </c>
       <c r="V21" t="n">
-        <v>1474.98871717697</v>
+        <v>1501.780560628391</v>
       </c>
       <c r="W21" t="n">
-        <v>1222.474225510303</v>
+        <v>1249.266068961725</v>
       </c>
       <c r="X21" t="n">
-        <v>1015.947326915881</v>
+        <v>1042.739170367302</v>
       </c>
       <c r="Y21" t="n">
-        <v>810.218891139531</v>
+        <v>837.0107345909524</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>197.5721160166138</v>
+        <v>345.2074911780325</v>
       </c>
       <c r="C22" t="n">
-        <v>197.5721160166138</v>
+        <v>345.2074911780325</v>
       </c>
       <c r="D22" t="n">
-        <v>47.06144276962452</v>
+        <v>194.6968179310432</v>
       </c>
       <c r="E22" t="n">
-        <v>47.06144276962452</v>
+        <v>194.6968179310432</v>
       </c>
       <c r="F22" t="n">
-        <v>47.06144276962452</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="G22" t="n">
-        <v>47.06144276962452</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="H22" t="n">
-        <v>47.06144276962452</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="I22" t="n">
-        <v>47.06144276962452</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="J22" t="n">
-        <v>47.06144276962452</v>
+        <v>47.06144276962453</v>
       </c>
       <c r="K22" t="n">
-        <v>88.52550135650137</v>
+        <v>88.52550135650142</v>
       </c>
       <c r="L22" t="n">
-        <v>197.3888359084143</v>
+        <v>197.3888359084144</v>
       </c>
       <c r="M22" t="n">
-        <v>322.7628580499604</v>
+        <v>322.7628580499605</v>
       </c>
       <c r="N22" t="n">
-        <v>450.2970280645391</v>
+        <v>450.2970280645393</v>
       </c>
       <c r="O22" t="n">
-        <v>552.7588795211515</v>
+        <v>552.7588795211517</v>
       </c>
       <c r="P22" t="n">
-        <v>617.2102128798002</v>
+        <v>617.2102128798006</v>
       </c>
       <c r="Q22" t="n">
-        <v>617.2102128798002</v>
+        <v>617.2102128798006</v>
       </c>
       <c r="R22" t="n">
-        <v>617.2102128798002</v>
+        <v>617.2102128798006</v>
       </c>
       <c r="S22" t="n">
-        <v>617.2102128798002</v>
+        <v>617.2102128798006</v>
       </c>
       <c r="T22" t="n">
-        <v>486.5545169129931</v>
+        <v>566.1657476101216</v>
       </c>
       <c r="U22" t="n">
-        <v>486.5545169129931</v>
+        <v>566.1657476101216</v>
       </c>
       <c r="V22" t="n">
-        <v>486.5545169129931</v>
+        <v>566.1657476101216</v>
       </c>
       <c r="W22" t="n">
-        <v>197.5721160166138</v>
+        <v>566.1657476101216</v>
       </c>
       <c r="X22" t="n">
-        <v>197.5721160166138</v>
+        <v>566.1657476101216</v>
       </c>
       <c r="Y22" t="n">
-        <v>197.5721160166138</v>
+        <v>345.2074911780325</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1111.848027981385</v>
+        <v>1566.518254698688</v>
       </c>
       <c r="C23" t="n">
-        <v>741.1560121440689</v>
+        <v>1539.551869958037</v>
       </c>
       <c r="D23" t="n">
-        <v>380.9492113818482</v>
+        <v>1179.345069195816</v>
       </c>
       <c r="E23" t="n">
-        <v>380.9492113818482</v>
+        <v>792.3571542914855</v>
       </c>
       <c r="F23" t="n">
         <v>380.9492113818482</v>
@@ -5989,13 +5989,13 @@
         <v>53.5311065740778</v>
       </c>
       <c r="J23" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733071</v>
       </c>
       <c r="K23" t="n">
-        <v>461.1915665632928</v>
+        <v>461.1915665632925</v>
       </c>
       <c r="L23" t="n">
-        <v>877.2105568248479</v>
+        <v>877.2105568248478</v>
       </c>
       <c r="M23" t="n">
         <v>1355.324135626645</v>
@@ -6013,28 +6013,28 @@
         <v>2676.55532870389</v>
       </c>
       <c r="R23" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="S23" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="T23" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="U23" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="V23" t="n">
-        <v>2288.158298712378</v>
+        <v>2344.703589792254</v>
       </c>
       <c r="W23" t="n">
-        <v>1934.087473459293</v>
+        <v>2344.703589792254</v>
       </c>
       <c r="X23" t="n">
-        <v>1559.479797569223</v>
+        <v>2344.703589792254</v>
       </c>
       <c r="Y23" t="n">
-        <v>1499.440361306026</v>
+        <v>1954.110588023329</v>
       </c>
     </row>
     <row r="24">
@@ -6062,7 +6062,7 @@
         <v>219.9143827707584</v>
       </c>
       <c r="H24" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068658</v>
       </c>
       <c r="I24" t="n">
         <v>53.5311065740778</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>506.7362085007437</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="C25" t="n">
-        <v>506.7362085007437</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="D25" t="n">
-        <v>356.2255352537545</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="E25" t="n">
-        <v>356.2255352537545</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="F25" t="n">
-        <v>356.2255352537545</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="G25" t="n">
-        <v>187.2594833039472</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="H25" t="n">
-        <v>187.2594833039472</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="I25" t="n">
-        <v>99.47634060639648</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J25" t="n">
         <v>53.5311065740778</v>
@@ -6180,19 +6180,19 @@
         <v>727.6944649328328</v>
       </c>
       <c r="U25" t="n">
-        <v>727.6944649328328</v>
+        <v>524.4162261479155</v>
       </c>
       <c r="V25" t="n">
-        <v>727.6944649328328</v>
+        <v>524.4162261479155</v>
       </c>
       <c r="W25" t="n">
-        <v>727.6944649328328</v>
+        <v>235.4338252515362</v>
       </c>
       <c r="X25" t="n">
-        <v>727.6944649328328</v>
+        <v>235.4338252515362</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.7362085007437</v>
+        <v>235.4338252515362</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1265.910979313645</v>
+        <v>1325.126448046428</v>
       </c>
       <c r="C26" t="n">
-        <v>895.218963476329</v>
+        <v>1325.126448046428</v>
       </c>
       <c r="D26" t="n">
-        <v>535.0121627141084</v>
+        <v>1325.126448046428</v>
       </c>
       <c r="E26" t="n">
-        <v>535.0121627141084</v>
+        <v>938.138533142097</v>
       </c>
       <c r="F26" t="n">
-        <v>535.0121627141084</v>
+        <v>526.7305902324597</v>
       </c>
       <c r="G26" t="n">
-        <v>535.0121627141084</v>
+        <v>526.7305902324597</v>
       </c>
       <c r="H26" t="n">
         <v>207.594057906338</v>
@@ -6232,7 +6232,7 @@
         <v>461.1915665632928</v>
       </c>
       <c r="L26" t="n">
-        <v>877.2105568248483</v>
+        <v>877.210556824848</v>
       </c>
       <c r="M26" t="n">
         <v>1355.324135626645</v>
@@ -6250,28 +6250,28 @@
         <v>2676.55532870389</v>
       </c>
       <c r="R26" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="S26" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="T26" t="n">
-        <v>2400.837317313204</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="U26" t="n">
-        <v>2400.837317313204</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="V26" t="n">
-        <v>2400.837317313204</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="W26" t="n">
-        <v>2046.766492060118</v>
+        <v>2103.311783139995</v>
       </c>
       <c r="X26" t="n">
-        <v>1672.158816170048</v>
+        <v>2103.311783139995</v>
       </c>
       <c r="Y26" t="n">
-        <v>1281.565814401123</v>
+        <v>1712.718781371069</v>
       </c>
     </row>
     <row r="27">
@@ -6299,7 +6299,7 @@
         <v>219.9143827707584</v>
       </c>
       <c r="H27" t="n">
-        <v>115.4714096068658</v>
+        <v>115.4714096068661</v>
       </c>
       <c r="I27" t="n">
         <v>53.5311065740778</v>
@@ -6317,13 +6317,13 @@
         <v>1316.572925812729</v>
       </c>
       <c r="N27" t="n">
-        <v>1725.940263988108</v>
+        <v>1871.653956270832</v>
       </c>
       <c r="O27" t="n">
-        <v>2166.102944282447</v>
+        <v>2311.81663656517</v>
       </c>
       <c r="P27" t="n">
-        <v>2502.945759567337</v>
+        <v>2648.659451850061</v>
       </c>
       <c r="Q27" t="n">
         <v>2676.55532870389</v>
@@ -6417,7 +6417,7 @@
         <v>727.6944649328328</v>
       </c>
       <c r="U28" t="n">
-        <v>598.0047711744361</v>
+        <v>438.7865626553464</v>
       </c>
       <c r="V28" t="n">
         <v>342.5135074704571</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1185.601516958534</v>
+        <v>1171.417838077945</v>
       </c>
       <c r="C29" t="n">
-        <v>1185.601516958534</v>
+        <v>800.7258222406292</v>
       </c>
       <c r="D29" t="n">
-        <v>1185.601516958534</v>
+        <v>440.5190214784086</v>
       </c>
       <c r="E29" t="n">
-        <v>798.6136020542033</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="F29" t="n">
-        <v>798.6136020542033</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="G29" t="n">
-        <v>380.9492113818482</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="H29" t="n">
         <v>53.5311065740778</v>
@@ -6463,7 +6463,7 @@
         <v>53.5311065740778</v>
       </c>
       <c r="J29" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733073</v>
       </c>
       <c r="K29" t="n">
         <v>461.1915665632928</v>
@@ -6487,28 +6487,28 @@
         <v>2676.55532870389</v>
       </c>
       <c r="R29" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="S29" t="n">
-        <v>2443.531235093137</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="T29" t="n">
-        <v>2224.358514782327</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="U29" t="n">
-        <v>1970.451037928298</v>
+        <v>2622.541079901662</v>
       </c>
       <c r="V29" t="n">
-        <v>1638.599299016662</v>
+        <v>2290.689340990026</v>
       </c>
       <c r="W29" t="n">
-        <v>1284.528473763577</v>
+        <v>1936.61851573694</v>
       </c>
       <c r="X29" t="n">
-        <v>1185.601516958534</v>
+        <v>1562.01083984687</v>
       </c>
       <c r="Y29" t="n">
-        <v>1185.601516958534</v>
+        <v>1171.417838077945</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>979.4794979670856</v>
+        <v>979.479497967086</v>
       </c>
       <c r="C30" t="n">
-        <v>806.7263828889029</v>
+        <v>806.726382888903</v>
       </c>
       <c r="D30" t="n">
         <v>659.1380762478468</v>
       </c>
       <c r="E30" t="n">
-        <v>501.5285472507015</v>
+        <v>501.5285472507014</v>
       </c>
       <c r="F30" t="n">
-        <v>356.5727572673184</v>
+        <v>356.5727572673183</v>
       </c>
       <c r="G30" t="n">
-        <v>219.9143827707584</v>
+        <v>219.914382770758</v>
       </c>
       <c r="H30" t="n">
-        <v>115.4714096068658</v>
+        <v>115.4714096068661</v>
       </c>
       <c r="I30" t="n">
         <v>53.5311065740778</v>
       </c>
       <c r="J30" t="n">
-        <v>53.5311065740778</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K30" t="n">
-        <v>309.7001854454656</v>
+        <v>385.5055637579835</v>
       </c>
       <c r="L30" t="n">
-        <v>715.0007321791047</v>
+        <v>790.8061104916226</v>
       </c>
       <c r="M30" t="n">
-        <v>1240.767547500212</v>
+        <v>1170.859233530005</v>
       </c>
       <c r="N30" t="n">
-        <v>1795.848577958314</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O30" t="n">
-        <v>2236.011258252653</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P30" t="n">
-        <v>2572.854073537543</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q30" t="n">
         <v>2676.55532870389</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.5311065740778</v>
+        <v>222.497158523885</v>
       </c>
       <c r="C31" t="n">
-        <v>53.5311065740778</v>
+        <v>222.497158523885</v>
       </c>
       <c r="D31" t="n">
-        <v>53.5311065740778</v>
+        <v>222.497158523885</v>
       </c>
       <c r="E31" t="n">
-        <v>53.5311065740778</v>
+        <v>222.497158523885</v>
       </c>
       <c r="F31" t="n">
-        <v>53.5311065740778</v>
+        <v>222.497158523885</v>
       </c>
       <c r="G31" t="n">
         <v>53.5311065740778</v>
@@ -6648,25 +6648,25 @@
         <v>727.6944649328328</v>
       </c>
       <c r="S31" t="n">
-        <v>597.9302725555432</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="T31" t="n">
-        <v>597.9302725555432</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="U31" t="n">
-        <v>309.0223702780568</v>
+        <v>450.9217645161166</v>
       </c>
       <c r="V31" t="n">
-        <v>53.5311065740778</v>
+        <v>450.9217645161166</v>
       </c>
       <c r="W31" t="n">
-        <v>53.5311065740778</v>
+        <v>450.9217645161166</v>
       </c>
       <c r="X31" t="n">
-        <v>53.5311065740778</v>
+        <v>222.497158523885</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.5311065740778</v>
+        <v>222.497158523885</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>784.4299231736143</v>
+        <v>1523.762317720254</v>
       </c>
       <c r="C32" t="n">
-        <v>413.7379073362984</v>
+        <v>1523.762317720254</v>
       </c>
       <c r="D32" t="n">
-        <v>53.5311065740778</v>
+        <v>1163.555516958033</v>
       </c>
       <c r="E32" t="n">
-        <v>53.5311065740778</v>
+        <v>776.5676020537021</v>
       </c>
       <c r="F32" t="n">
-        <v>53.5311065740778</v>
+        <v>365.1596591440648</v>
       </c>
       <c r="G32" t="n">
         <v>53.5311065740778</v>
@@ -6700,13 +6700,13 @@
         <v>53.5311065740778</v>
       </c>
       <c r="J32" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733073</v>
       </c>
       <c r="K32" t="n">
-        <v>461.1915665632928</v>
+        <v>461.191566563293</v>
       </c>
       <c r="L32" t="n">
-        <v>877.2105568248483</v>
+        <v>877.210556824848</v>
       </c>
       <c r="M32" t="n">
         <v>1355.324135626645</v>
@@ -6724,28 +6724,28 @@
         <v>2676.55532870389</v>
       </c>
       <c r="R32" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="S32" t="n">
-        <v>2443.531235093137</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.358514782327</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="U32" t="n">
-        <v>1970.451037928298</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="V32" t="n">
-        <v>1638.599299016662</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="W32" t="n">
-        <v>1284.528473763577</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="X32" t="n">
-        <v>909.9207978735069</v>
+        <v>2301.94765281382</v>
       </c>
       <c r="Y32" t="n">
-        <v>784.4299231736143</v>
+        <v>1911.354651044895</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670856</v>
       </c>
       <c r="C33" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889029</v>
       </c>
       <c r="D33" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478468</v>
       </c>
       <c r="E33" t="n">
-        <v>501.5285472507018</v>
+        <v>501.5285472507015</v>
       </c>
       <c r="F33" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673184</v>
       </c>
       <c r="G33" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707584</v>
       </c>
       <c r="H33" t="n">
         <v>115.4714096068661</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>690.4938692500676</v>
+        <v>580.4019818320926</v>
       </c>
       <c r="C34" t="n">
-        <v>521.467048107439</v>
+        <v>411.375160689464</v>
       </c>
       <c r="D34" t="n">
-        <v>370.9563748604498</v>
+        <v>260.8644874424747</v>
       </c>
       <c r="E34" t="n">
         <v>222.497158523885</v>
@@ -6882,28 +6882,28 @@
         <v>727.6944649328328</v>
       </c>
       <c r="R34" t="n">
-        <v>727.6944649328328</v>
+        <v>580.4019818320926</v>
       </c>
       <c r="S34" t="n">
-        <v>727.6944649328328</v>
+        <v>580.4019818320926</v>
       </c>
       <c r="T34" t="n">
-        <v>727.6944649328328</v>
+        <v>580.4019818320926</v>
       </c>
       <c r="U34" t="n">
-        <v>727.6944649328328</v>
+        <v>580.4019818320926</v>
       </c>
       <c r="V34" t="n">
-        <v>727.6944649328328</v>
+        <v>580.4019818320926</v>
       </c>
       <c r="W34" t="n">
-        <v>727.6944649328328</v>
+        <v>580.4019818320926</v>
       </c>
       <c r="X34" t="n">
-        <v>727.6944649328328</v>
+        <v>580.4019818320926</v>
       </c>
       <c r="Y34" t="n">
-        <v>690.4938692500676</v>
+        <v>580.4019818320926</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1841.824702530448</v>
+        <v>640.0660042224531</v>
       </c>
       <c r="C35" t="n">
-        <v>1629.798155822622</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="D35" t="n">
-        <v>1269.591355060401</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="E35" t="n">
-        <v>882.6034401560701</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="F35" t="n">
         <v>471.1954972464328</v>
       </c>
       <c r="G35" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="H35" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="I35" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J35" t="n">
-        <v>167.7421803733073</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K35" t="n">
-        <v>461.1915665632932</v>
+        <v>461.1915665632929</v>
       </c>
       <c r="L35" t="n">
-        <v>877.2105568248486</v>
+        <v>877.2105568248481</v>
       </c>
       <c r="M35" t="n">
         <v>1355.324135626645</v>
       </c>
       <c r="N35" t="n">
-        <v>1825.656916993543</v>
+        <v>1825.656916993542</v>
       </c>
       <c r="O35" t="n">
-        <v>2223.65047400805</v>
+        <v>2223.650474008049</v>
       </c>
       <c r="P35" t="n">
         <v>2526.389973845557</v>
       </c>
       <c r="Q35" t="n">
-        <v>2676.555328703891</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="R35" t="n">
         <v>2620.010037624014</v>
@@ -6967,22 +6967,22 @@
         <v>2620.010037624014</v>
       </c>
       <c r="T35" t="n">
-        <v>2620.010037624014</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="U35" t="n">
-        <v>2620.010037624014</v>
+        <v>2146.929840459175</v>
       </c>
       <c r="V35" t="n">
-        <v>2620.010037624014</v>
+        <v>2146.929840459175</v>
       </c>
       <c r="W35" t="n">
-        <v>2620.010037624014</v>
+        <v>1792.85901520609</v>
       </c>
       <c r="X35" t="n">
-        <v>2620.010037624014</v>
+        <v>1418.25133931602</v>
       </c>
       <c r="Y35" t="n">
-        <v>2229.417035855089</v>
+        <v>1027.658337547095</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670856</v>
       </c>
       <c r="C36" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889029</v>
       </c>
       <c r="D36" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478468</v>
       </c>
       <c r="E36" t="n">
-        <v>501.5285472507018</v>
+        <v>501.5285472507015</v>
       </c>
       <c r="F36" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673184</v>
       </c>
       <c r="G36" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707584</v>
       </c>
       <c r="H36" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068658</v>
       </c>
       <c r="I36" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J36" t="n">
-        <v>53.53110657407781</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K36" t="n">
-        <v>309.7001854454656</v>
+        <v>385.5055637579835</v>
       </c>
       <c r="L36" t="n">
-        <v>715.0007321791047</v>
+        <v>790.8061104916226</v>
       </c>
       <c r="M36" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.572925812729</v>
       </c>
       <c r="N36" t="n">
-        <v>1795.848577958314</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O36" t="n">
-        <v>2236.011258252653</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P36" t="n">
-        <v>2572.854073537543</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q36" t="n">
-        <v>2676.555328703891</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="R36" t="n">
         <v>2626.774708455267</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>278.3116025085121</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="C37" t="n">
-        <v>278.3116025085121</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="D37" t="n">
-        <v>278.3116025085121</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="E37" t="n">
-        <v>278.3116025085121</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="F37" t="n">
-        <v>278.3116025085121</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="G37" t="n">
-        <v>109.3455505587049</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="H37" t="n">
-        <v>109.3455505587049</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="I37" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J37" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="K37" t="n">
-        <v>109.4344173802943</v>
+        <v>109.4344173802942</v>
       </c>
       <c r="L37" t="n">
         <v>236.7750235124169</v>
@@ -7122,25 +7122,25 @@
         <v>727.6944649328328</v>
       </c>
       <c r="S37" t="n">
-        <v>727.6944649328328</v>
+        <v>513.8853266532924</v>
       </c>
       <c r="T37" t="n">
-        <v>727.6944649328328</v>
+        <v>285.8929627032433</v>
       </c>
       <c r="U37" t="n">
-        <v>727.6944649328328</v>
+        <v>285.8929627032433</v>
       </c>
       <c r="V37" t="n">
-        <v>727.6944649328328</v>
+        <v>285.8929627032433</v>
       </c>
       <c r="W37" t="n">
-        <v>727.6944649328328</v>
+        <v>281.9557125663094</v>
       </c>
       <c r="X37" t="n">
-        <v>499.2698589406012</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.3116025085121</v>
+        <v>53.5311065740778</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1751.072411200432</v>
+        <v>915.7840156131397</v>
       </c>
       <c r="C38" t="n">
-        <v>1751.072411200432</v>
+        <v>915.7840156131397</v>
       </c>
       <c r="D38" t="n">
-        <v>1751.072411200432</v>
+        <v>915.7840156131397</v>
       </c>
       <c r="E38" t="n">
-        <v>1364.084496296101</v>
+        <v>915.7840156131397</v>
       </c>
       <c r="F38" t="n">
-        <v>952.6765533864634</v>
+        <v>915.7840156131397</v>
       </c>
       <c r="G38" t="n">
-        <v>535.0121627141084</v>
+        <v>498.1196249407847</v>
       </c>
       <c r="H38" t="n">
-        <v>207.594057906338</v>
+        <v>170.7015201330142</v>
       </c>
       <c r="I38" t="n">
         <v>53.5311065740778</v>
       </c>
       <c r="J38" t="n">
-        <v>167.7421803733074</v>
+        <v>167.7421803733073</v>
       </c>
       <c r="K38" t="n">
-        <v>461.1915665632925</v>
+        <v>461.191566563293</v>
       </c>
       <c r="L38" t="n">
-        <v>877.2105568248478</v>
+        <v>877.210556824848</v>
       </c>
       <c r="M38" t="n">
         <v>1355.324135626645</v>
@@ -7207,19 +7207,19 @@
         <v>2676.55532870389</v>
       </c>
       <c r="U38" t="n">
-        <v>2529.257746293998</v>
+        <v>2422.647851849862</v>
       </c>
       <c r="V38" t="n">
-        <v>2529.257746293998</v>
+        <v>2422.647851849862</v>
       </c>
       <c r="W38" t="n">
-        <v>2529.257746293998</v>
+        <v>2068.577026596776</v>
       </c>
       <c r="X38" t="n">
-        <v>2529.257746293998</v>
+        <v>1693.969350706706</v>
       </c>
       <c r="Y38" t="n">
-        <v>2138.664744525073</v>
+        <v>1303.376348937781</v>
       </c>
     </row>
     <row r="39">
@@ -7256,13 +7256,13 @@
         <v>129.3364848865957</v>
       </c>
       <c r="K39" t="n">
-        <v>385.5055637579835</v>
+        <v>239.7918714752591</v>
       </c>
       <c r="L39" t="n">
-        <v>790.8061104916226</v>
+        <v>645.0924182088982</v>
       </c>
       <c r="M39" t="n">
-        <v>1316.572925812729</v>
+        <v>1170.859233530005</v>
       </c>
       <c r="N39" t="n">
         <v>1725.940263988108</v>
@@ -7280,10 +7280,10 @@
         <v>2626.774708455267</v>
       </c>
       <c r="S39" t="n">
-        <v>2469.829437388748</v>
+        <v>2469.829437388747</v>
       </c>
       <c r="T39" t="n">
-        <v>2272.420954324037</v>
+        <v>2272.420954324036</v>
       </c>
       <c r="U39" t="n">
         <v>2045.543118600484</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2329.117808944874</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="C40" t="n">
-        <v>2329.117808944874</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="D40" t="n">
-        <v>2329.117808944874</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="E40" t="n">
-        <v>2329.117808944874</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="F40" t="n">
-        <v>2329.117808944874</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="G40" t="n">
-        <v>2160.151756995067</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="H40" t="n">
-        <v>2002.391970345135</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="I40" t="n">
-        <v>2002.391970345135</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J40" t="n">
-        <v>2002.391970345135</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="K40" t="n">
-        <v>2058.295281151352</v>
+        <v>109.4344173802942</v>
       </c>
       <c r="L40" t="n">
-        <v>2185.635887283474</v>
+        <v>236.7750235124169</v>
       </c>
       <c r="M40" t="n">
-        <v>2330.491601601709</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N40" t="n">
-        <v>2477.044232696737</v>
+        <v>528.1833689256791</v>
       </c>
       <c r="O40" t="n">
-        <v>2597.07271118827</v>
+        <v>648.2118474172127</v>
       </c>
       <c r="P40" t="n">
-        <v>2676.55532870389</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="Q40" t="n">
-        <v>2647.854549863711</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="R40" t="n">
-        <v>2500.562066762971</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="S40" t="n">
-        <v>2329.117808944874</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="T40" t="n">
-        <v>2329.117808944874</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="U40" t="n">
-        <v>2329.117808944874</v>
+        <v>438.7865626553464</v>
       </c>
       <c r="V40" t="n">
-        <v>2329.117808944874</v>
+        <v>342.5135074704571</v>
       </c>
       <c r="W40" t="n">
-        <v>2329.117808944874</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="X40" t="n">
-        <v>2329.117808944874</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="Y40" t="n">
-        <v>2329.117808944874</v>
+        <v>53.5311065740778</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1284.528473763577</v>
+        <v>1111.848027981385</v>
       </c>
       <c r="C41" t="n">
-        <v>913.8364579262612</v>
+        <v>741.1560121440689</v>
       </c>
       <c r="D41" t="n">
-        <v>913.8364579262612</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="E41" t="n">
-        <v>526.8485430219305</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="F41" t="n">
         <v>380.9492113818482</v>
@@ -7405,19 +7405,19 @@
         <v>380.9492113818482</v>
       </c>
       <c r="H41" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I41" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J41" t="n">
         <v>167.7421803733073</v>
       </c>
       <c r="K41" t="n">
-        <v>461.1915665632928</v>
+        <v>461.1915665632927</v>
       </c>
       <c r="L41" t="n">
-        <v>877.2105568248478</v>
+        <v>877.210556824848</v>
       </c>
       <c r="M41" t="n">
         <v>1355.324135626645</v>
@@ -7426,37 +7426,37 @@
         <v>1825.656916993542</v>
       </c>
       <c r="O41" t="n">
-        <v>2223.650474008049</v>
+        <v>2223.65047400805</v>
       </c>
       <c r="P41" t="n">
         <v>2526.389973845557</v>
       </c>
       <c r="Q41" t="n">
-        <v>2676.55532870389</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="R41" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S41" t="n">
-        <v>2443.531235093137</v>
+        <v>2500.076526173014</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.358514782327</v>
+        <v>2280.903805862204</v>
       </c>
       <c r="U41" t="n">
-        <v>1970.451037928298</v>
+        <v>2026.996329008175</v>
       </c>
       <c r="V41" t="n">
-        <v>1638.599299016662</v>
+        <v>1695.144590096539</v>
       </c>
       <c r="W41" t="n">
-        <v>1284.528473763577</v>
+        <v>1695.144590096539</v>
       </c>
       <c r="X41" t="n">
-        <v>1284.528473763577</v>
+        <v>1320.536914206469</v>
       </c>
       <c r="Y41" t="n">
-        <v>1284.528473763577</v>
+        <v>1320.536914206469</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>979.4794979670856</v>
+        <v>979.4794979670861</v>
       </c>
       <c r="C42" t="n">
-        <v>806.7263828889029</v>
+        <v>806.7263828889033</v>
       </c>
       <c r="D42" t="n">
-        <v>659.1380762478468</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E42" t="n">
-        <v>501.5285472507015</v>
+        <v>501.528547250702</v>
       </c>
       <c r="F42" t="n">
-        <v>356.5727572673184</v>
+        <v>356.5727572673188</v>
       </c>
       <c r="G42" t="n">
-        <v>219.9143827707584</v>
+        <v>219.9143827707589</v>
       </c>
       <c r="H42" t="n">
-        <v>115.4714096068658</v>
+        <v>115.4714096068663</v>
       </c>
       <c r="I42" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J42" t="n">
-        <v>129.3364848865957</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K42" t="n">
-        <v>385.5055637579835</v>
+        <v>309.7001854454657</v>
       </c>
       <c r="L42" t="n">
-        <v>790.8061104916226</v>
+        <v>715.0007321791047</v>
       </c>
       <c r="M42" t="n">
-        <v>1316.572925812729</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N42" t="n">
-        <v>1871.653956270832</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O42" t="n">
-        <v>2311.81663656517</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P42" t="n">
-        <v>2648.659451850061</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q42" t="n">
-        <v>2676.55532870389</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="R42" t="n">
         <v>2626.774708455267</v>
@@ -7535,7 +7535,7 @@
         <v>1352.250484864996</v>
       </c>
       <c r="Y42" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="C43" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="D43" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="E43" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="F43" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G43" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H43" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I43" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J43" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K43" t="n">
-        <v>109.4344173802942</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L43" t="n">
-        <v>236.7750235124169</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M43" t="n">
         <v>381.630737830651</v>
       </c>
       <c r="N43" t="n">
-        <v>528.1833689256791</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O43" t="n">
-        <v>648.2118474172127</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P43" t="n">
-        <v>727.6944649328328</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q43" t="n">
-        <v>727.6944649328328</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R43" t="n">
-        <v>727.6944649328328</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S43" t="n">
-        <v>727.6944649328328</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T43" t="n">
-        <v>727.6944649328328</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="U43" t="n">
-        <v>598.0047711744361</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="V43" t="n">
-        <v>342.5135074704571</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="W43" t="n">
-        <v>53.5311065740778</v>
+        <v>281.9557125663094</v>
       </c>
       <c r="X43" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1461.007276294454</v>
+        <v>1050.682120555415</v>
       </c>
       <c r="C44" t="n">
-        <v>1461.007276294454</v>
+        <v>1050.682120555415</v>
       </c>
       <c r="D44" t="n">
-        <v>1461.007276294454</v>
+        <v>690.4753197931946</v>
       </c>
       <c r="E44" t="n">
-        <v>1364.084496296101</v>
+        <v>464.9390494837151</v>
       </c>
       <c r="F44" t="n">
-        <v>952.6765533864634</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G44" t="n">
-        <v>535.0121627141084</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H44" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I44" t="n">
         <v>53.53110657407781</v>
@@ -7654,7 +7654,7 @@
         <v>461.1915665632929</v>
       </c>
       <c r="L44" t="n">
-        <v>877.210556824848</v>
+        <v>877.2105568248483</v>
       </c>
       <c r="M44" t="n">
         <v>1355.324135626645</v>
@@ -7672,28 +7672,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R44" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S44" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T44" t="n">
-        <v>2400.837317313204</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="U44" t="n">
-        <v>2146.929840459175</v>
+        <v>2203.475131539052</v>
       </c>
       <c r="V44" t="n">
-        <v>1815.07810154754</v>
+        <v>2203.475131539052</v>
       </c>
       <c r="W44" t="n">
-        <v>1461.007276294454</v>
+        <v>2203.475131539052</v>
       </c>
       <c r="X44" t="n">
-        <v>1461.007276294454</v>
+        <v>1828.867455648982</v>
       </c>
       <c r="Y44" t="n">
-        <v>1461.007276294454</v>
+        <v>1438.274453880057</v>
       </c>
     </row>
     <row r="45">
@@ -7727,16 +7727,16 @@
         <v>53.53110657407781</v>
       </c>
       <c r="J45" t="n">
-        <v>129.3364848865957</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K45" t="n">
-        <v>385.5055637579836</v>
+        <v>239.7918714752595</v>
       </c>
       <c r="L45" t="n">
-        <v>790.8061104916227</v>
+        <v>645.0924182088986</v>
       </c>
       <c r="M45" t="n">
-        <v>1316.57292581273</v>
+        <v>1170.859233530005</v>
       </c>
       <c r="N45" t="n">
         <v>1725.940263988108</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>222.5579277167064</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="C46" t="n">
         <v>53.53110657407781</v>
@@ -7836,22 +7836,22 @@
         <v>727.6944649328329</v>
       </c>
       <c r="T46" t="n">
-        <v>727.6944649328329</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="U46" t="n">
-        <v>727.6944649328329</v>
+        <v>309.0223702780568</v>
       </c>
       <c r="V46" t="n">
-        <v>511.5403286130858</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="W46" t="n">
-        <v>222.5579277167064</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="X46" t="n">
-        <v>222.5579277167064</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.5579277167064</v>
+        <v>53.53110657407781</v>
       </c>
     </row>
   </sheetData>
@@ -7999,7 +7999,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q2" t="n">
-        <v>220.8075902863012</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R2" t="n">
         <v>68.34507666790174</v>
@@ -8057,19 +8057,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L3" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
-        <v>362.2401502120439</v>
+        <v>139.1386460980858</v>
       </c>
       <c r="N3" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
         <v>409.6168120477987</v>
@@ -8078,7 +8078,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8236,7 +8236,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q5" t="n">
-        <v>220.8075902863012</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R5" t="n">
         <v>68.34507666790174</v>
@@ -8294,7 +8294,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K6" t="n">
         <v>275.0438464930818</v>
@@ -8303,10 +8303,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>272.7740099466068</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N6" t="n">
-        <v>128.05816928125</v>
+        <v>351.7176364193258</v>
       </c>
       <c r="O6" t="n">
         <v>409.6168120477987</v>
@@ -8315,7 +8315,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q6" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8540,10 +8540,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>362.2401502120439</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N9" t="n">
-        <v>128.05816928125</v>
+        <v>351.7176364193258</v>
       </c>
       <c r="O9" t="n">
         <v>409.6168120477987</v>
@@ -8774,7 +8774,7 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>385.6739591155975</v>
+        <v>149.3325225072826</v>
       </c>
       <c r="M12" t="n">
         <v>484.3332662999999</v>
@@ -8783,7 +8783,7 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O12" t="n">
-        <v>173.2753754394843</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
         <v>331.2012793855346</v>
@@ -9005,10 +9005,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>68.71072211854431</v>
+        <v>68.71072211854428</v>
       </c>
       <c r="K15" t="n">
-        <v>257.3754017715926</v>
+        <v>101.1263645202487</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9026,7 +9026,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>62.23134199393843</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9242,7 +9242,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>68.71072211854434</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
         <v>275.0438464930818</v>
@@ -9251,7 +9251,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>484.3332662999999</v>
+        <v>247.991829691686</v>
       </c>
       <c r="N18" t="n">
         <v>498.5160693172957</v>
@@ -9260,10 +9260,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>313.532834664046</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>62.23134199393846</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9479,7 +9479,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>131.1346767540252</v>
+        <v>68.71072211854428</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
@@ -9488,7 +9488,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>247.9918296916857</v>
+        <v>466.6648215785114</v>
       </c>
       <c r="N21" t="n">
         <v>498.5160693172957</v>
@@ -9500,7 +9500,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>218.4803792452831</v>
+        <v>62.2313419939384</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9965,7 +9965,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N27" t="n">
-        <v>351.3305215569681</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>218.4803792452831</v>
+        <v>71.29483148495589</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10190,7 +10190,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>54.56358754946166</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
         <v>275.0438464930818</v>
@@ -10199,7 +10199,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
-        <v>484.3332662999999</v>
+        <v>337.1477185396723</v>
       </c>
       <c r="N30" t="n">
         <v>498.5160693172957</v>
@@ -10211,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>147.8659206895194</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10664,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>54.56358754946166</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10676,7 +10676,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>498.5160693172957</v>
+        <v>351.3305215569681</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10685,7 +10685,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>147.8659206895198</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10825,7 +10825,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
-        <v>337.111229074011</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L38" t="n">
         <v>434.3676631324684</v>
@@ -10904,7 +10904,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
-        <v>275.0438464930818</v>
+        <v>127.8582987327541</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
@@ -10913,7 +10913,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>351.3305215569681</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -11138,7 +11138,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>54.56358754946164</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11150,7 +11150,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>498.5160693172957</v>
+        <v>427.901610761532</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11159,7 +11159,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>71.29483148495589</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11317,7 +11317,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q44" t="n">
-        <v>220.8075902863009</v>
+        <v>220.8075902863008</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11375,10 +11375,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>54.56358754946164</v>
       </c>
       <c r="K45" t="n">
-        <v>275.0438464930818</v>
+        <v>204.429387937318</v>
       </c>
       <c r="L45" t="n">
         <v>385.6739591155975</v>
@@ -11387,7 +11387,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>351.3305215569682</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>365.0923496813319</v>
+        <v>142.1272324849117</v>
       </c>
       <c r="C2" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D2" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E2" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F2" t="n">
         <v>407.2938634805408</v>
@@ -22600,19 +22600,19 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>54.2494141809168</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W2" t="n">
-        <v>76.24630965895204</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X2" t="n">
-        <v>96.57779178956685</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
         <v>386.6870717512358</v>
@@ -22625,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.59846856447017</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>156.3353061982157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -22646,7 +22646,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>198.3825319082687</v>
@@ -22688,7 +22688,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>204.4616296084783</v>
@@ -22725,10 +22725,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>63.68426508357423</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
         <v>14.77440971783335</v>
@@ -22767,7 +22767,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W4" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X4" t="n">
         <v>226.1403599323093</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>109.4326026497925</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C5" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D5" t="n">
-        <v>82.32092541299585</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E5" t="n">
         <v>383.1180357552875</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>328.5332215225193</v>
+        <v>86.25127718860955</v>
       </c>
       <c r="W5" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X5" t="n">
-        <v>129.272421624686</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y5" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="6">
@@ -22868,22 +22868,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>133.0565390046431</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,25 +22913,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>241.239958316192</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -22956,13 +22956,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H7" t="n">
         <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7350090859034</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
         <v>88.83884492777894</v>
@@ -23004,7 +23004,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W7" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X7" t="n">
         <v>226.1403599323093</v>
@@ -23035,10 +23035,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G8" t="n">
-        <v>315.775687732787</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H8" t="n">
-        <v>63.86009604655084</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
         <v>205.224307868124</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>222.9651171964204</v>
@@ -23080,16 +23080,16 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
-        <v>54.2494141809168</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W8" t="n">
-        <v>76.24630965895204</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
-        <v>370.8615991311694</v>
+        <v>203.3636658420623</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>35.41608053740073</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4158607078694</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
         <v>224.6571770672012</v>
@@ -23168,7 +23168,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23199,7 +23199,7 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>153.7585467974036</v>
+        <v>148.2365678255776</v>
       </c>
       <c r="J10" t="n">
         <v>88.83884492777894</v>
@@ -23226,7 +23226,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>222.3574069614225</v>
@@ -23235,7 +23235,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U10" t="n">
-        <v>107.1391437494559</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V10" t="n">
         <v>252.9363510669392</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>319.7279186798305</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>366.9850956789426</v>
@@ -23272,13 +23272,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>413.7676097105165</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0100701439972</v>
       </c>
       <c r="I11" t="n">
-        <v>163.3117380016203</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.55977888071592</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.0913913621372</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>145.385027967749</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
         <v>370.8615991311694</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>135.4415306281902</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>104.844715398324</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>66.47641768350113</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>93.00034270040784</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>161.9654556450969</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>16.78519173865328</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
         <v>167.4019283127586</v>
@@ -23436,10 +23436,10 @@
         <v>157.2983257928464</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0932620502043</v>
       </c>
       <c r="J13" t="n">
-        <v>54.36123928117397</v>
+        <v>54.36123928117394</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.9257730903424</v>
+        <v>38.92577309034237</v>
       </c>
       <c r="R13" t="n">
         <v>151.4641530024159</v>
@@ -23472,13 +23472,13 @@
         <v>226.2488251719237</v>
       </c>
       <c r="U13" t="n">
-        <v>286.025670721027</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
-        <v>286.0925768874155</v>
+        <v>7.670965199368311</v>
       </c>
       <c r="X13" t="n">
         <v>226.1403599323093</v>
@@ -23497,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.0111980475366</v>
+        <v>413.7676097105165</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>66.63748289547254</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.5597788807159</v>
       </c>
       <c r="S14" t="n">
         <v>181.0913913621372</v>
@@ -23551,7 +23551,7 @@
         <v>218.2060931489365</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.3907911210793</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="15">
@@ -23576,10 +23576,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>26.52392501690625</v>
       </c>
       <c r="D15" t="n">
-        <v>78.66881223758845</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>135.4415306281902</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>104.844715398324</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>66.47641768350113</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>58.57982147197338</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>196.0379550173603</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>60.52544288168725</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C16" t="n">
-        <v>167.3365529312023</v>
+        <v>99.38972190082505</v>
       </c>
       <c r="D16" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.4019283127586</v>
@@ -23676,7 +23676,7 @@
         <v>139.0932620502043</v>
       </c>
       <c r="J16" t="n">
-        <v>54.36123928117397</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.9257730903424</v>
+        <v>38.92577309034237</v>
       </c>
       <c r="R16" t="n">
         <v>151.4641530024159</v>
@@ -23718,10 +23718,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="17">
@@ -23734,16 +23734,16 @@
         <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>314.3625568004844</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.3117380016203</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.55977888071595</v>
+        <v>73.5597788807159</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.2060931489365</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>200.637643575292</v>
+        <v>251.3907911210793</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>370.8615991311694</v>
@@ -23816,7 +23816,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>108.6676800529349</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>104.844715398324</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>66.47641768350113</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,10 +23864,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>161.9654556450962</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6189086739872</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>81.59622210628103</v>
       </c>
       <c r="G19" t="n">
         <v>167.4019283127586</v>
@@ -23910,10 +23910,10 @@
         <v>157.2983257928464</v>
       </c>
       <c r="I19" t="n">
-        <v>113.6080014290966</v>
+        <v>139.0932620502043</v>
       </c>
       <c r="J19" t="n">
-        <v>54.36123928117398</v>
+        <v>54.36123928117394</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>38.92577309034241</v>
+        <v>38.92577309034237</v>
       </c>
       <c r="R19" t="n">
         <v>151.4641530024159</v>
       </c>
       <c r="S19" t="n">
-        <v>213.8588123845238</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>226.2488251719237</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
         <v>286.0925768874155</v>
@@ -23974,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>116.809504392856</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0100701439972</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>26.33657977595658</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.55977888071594</v>
+        <v>73.5597788807159</v>
       </c>
       <c r="S20" t="n">
         <v>181.0913913621372</v>
       </c>
       <c r="T20" t="n">
-        <v>218.2060931489365</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3907911210793</v>
@@ -24031,10 +24031,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.6870717512358</v>
@@ -24056,16 +24056,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>123.303938959872</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.4415306281902</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>104.844715398324</v>
       </c>
       <c r="I21" t="n">
         <v>66.47641768350113</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>26.5239250169063</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.4019283127586</v>
@@ -24150,7 +24150,7 @@
         <v>139.0932620502043</v>
       </c>
       <c r="J22" t="n">
-        <v>54.36123928117397</v>
+        <v>54.36123928117394</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.9257730903424</v>
+        <v>38.92577309034237</v>
       </c>
       <c r="R22" t="n">
         <v>151.4641530024159</v>
@@ -24180,7 +24180,7 @@
         <v>213.8588123845238</v>
       </c>
       <c r="T22" t="n">
-        <v>96.8996861647847</v>
+        <v>175.7148045549415</v>
       </c>
       <c r="U22" t="n">
         <v>286.025670721027</v>
@@ -24189,13 +24189,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,16 +24208,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>340.2883747856984</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>413.4877467656314</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>55.9798381690774</v>
       </c>
       <c r="S23" t="n">
         <v>174.714014505568</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>327.2480298506711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
         <v>146.9746241731992</v>
@@ -24378,16 +24378,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H25" t="n">
         <v>156.1821887834319</v>
       </c>
       <c r="I25" t="n">
-        <v>48.41271435105729</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.48578169199548</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>225.7124403105487</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0188232547115</v>
+        <v>84.7733668576434</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>368.2181232547916</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>413.4877467656314</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>8.198756756832211</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>55.9798381690774</v>
       </c>
       <c r="S26" t="n">
         <v>174.714014505568</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>225.7124403105487</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6260264338988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>157.6260264338987</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24682,10 +24682,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I29" t="n">
         <v>152.5223218189376</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>55.9798381690774</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>197.8942957712824</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>272.9239118941769</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24852,7 +24852,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1821887834319</v>
@@ -24888,22 +24888,22 @@
         <v>145.8195582697328</v>
       </c>
       <c r="S31" t="n">
-        <v>83.20449644322829</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T31" t="n">
         <v>225.7124403105487</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>12.01384984216247</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.7486738677682</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.4877467656314</v>
+        <v>104.9754797213442</v>
       </c>
       <c r="H32" t="n">
         <v>324.1439237596927</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>55.9798381690774</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.4511057983421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>108.9909685437954</v>
       </c>
       <c r="F34" t="n">
         <v>146.1590214098045</v>
@@ -25122,7 +25122,7 @@
         <v>28.41377105177701</v>
       </c>
       <c r="R34" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>211.671046896745</v>
@@ -25143,7 +25143,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
-        <v>181.9200841418307</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="35">
@@ -25156,16 +25156,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>157.0788144381948</v>
+        <v>199.8032937726825</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>174.714014505568</v>
       </c>
       <c r="T35" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H37" t="n">
         <v>156.1821887834319</v>
       </c>
       <c r="I37" t="n">
-        <v>80.06172607685171</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J37" t="n">
         <v>45.48578169199548</v>
@@ -25362,10 +25362,10 @@
         <v>145.8195582697328</v>
       </c>
       <c r="S37" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.0188232547115</v>
@@ -25374,13 +25374,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>286.0925768874155</v>
+        <v>282.194699251851</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -25399,10 +25399,10 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>36.52361239559049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,16 +25447,16 @@
         <v>216.980993107702</v>
       </c>
       <c r="U38" t="n">
-        <v>105.5437954996953</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I40" t="n">
         <v>135.3180256216325</v>
@@ -25593,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>28.41377105177701</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S40" t="n">
-        <v>41.94123165682859</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T40" t="n">
         <v>225.7124403105487</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.9363510669392</v>
+        <v>157.6260264338987</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>383.716409991395</v>
+        <v>177.1144126285617</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>262.8535251568594</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
         <v>413.4877467656314</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25690,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.6870717512358</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.41377105177701</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R43" t="n">
         <v>145.8195582697328</v>
@@ -25839,19 +25839,19 @@
         <v>211.671046896745</v>
       </c>
       <c r="T43" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>157.6260264338988</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>70.52365235510587</v>
       </c>
       <c r="X43" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.7486738677682</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>287.1644835569175</v>
+        <v>159.8371281489028</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S44" t="n">
         <v>174.714014505568</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
         <v>149.0055665145194</v>
@@ -26046,7 +26046,7 @@
         <v>135.3180256216325</v>
       </c>
       <c r="J46" t="n">
-        <v>45.48578169199547</v>
+        <v>45.48578169199548</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.41377105177699</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R46" t="n">
         <v>145.8195582697328</v>
@@ -26076,16 +26076,16 @@
         <v>211.671046896745</v>
       </c>
       <c r="T46" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0188232547115</v>
+        <v>97.24588985703178</v>
       </c>
       <c r="V46" t="n">
-        <v>38.94375611038944</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>485304.5322799818</v>
+        <v>485304.532279982</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>708352.2034951615</v>
+        <v>708352.2034951616</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>708352.2034951614</v>
+        <v>708352.2034951615</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>708352.2034951614</v>
+        <v>708352.2034951617</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>765777.9268160721</v>
+        <v>765777.926816072</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>765777.9268160721</v>
+        <v>765777.926816072</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>765777.9268160721</v>
+        <v>765777.926816072</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>765777.9268160721</v>
+        <v>765777.9268160722</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>765777.9268160721</v>
+        <v>765777.9268160722</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>765777.9268160721</v>
+        <v>765777.9268160722</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>765777.9268160722</v>
+        <v>765777.9268160723</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173177.1238423508</v>
+        <v>173177.1238423507</v>
       </c>
       <c r="C2" t="n">
-        <v>173177.1238423508</v>
+        <v>173177.1238423507</v>
       </c>
       <c r="D2" t="n">
         <v>173177.1238423507</v>
       </c>
       <c r="E2" t="n">
-        <v>261516.7932972993</v>
+        <v>261516.7932972994</v>
       </c>
       <c r="F2" t="n">
-        <v>261516.7932972994</v>
+        <v>261516.7932972995</v>
       </c>
       <c r="G2" t="n">
         <v>261516.7932972994</v>
       </c>
       <c r="H2" t="n">
-        <v>261516.7932972993</v>
+        <v>261516.7932972995</v>
       </c>
       <c r="I2" t="n">
+        <v>284260.2700444341</v>
+      </c>
+      <c r="J2" t="n">
+        <v>284260.2700444343</v>
+      </c>
+      <c r="K2" t="n">
         <v>284260.2700444342</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>284260.2700444342</v>
       </c>
-      <c r="K2" t="n">
-        <v>284260.2700444344</v>
-      </c>
-      <c r="L2" t="n">
-        <v>284260.2700444345</v>
-      </c>
       <c r="M2" t="n">
+        <v>284260.2700444343</v>
+      </c>
+      <c r="N2" t="n">
         <v>284260.2700444342</v>
       </c>
-      <c r="N2" t="n">
-        <v>284260.2700444341</v>
-      </c>
       <c r="O2" t="n">
-        <v>284260.2700444344</v>
+        <v>284260.2700444343</v>
       </c>
       <c r="P2" t="n">
-        <v>284260.2700444341</v>
+        <v>284260.2700444342</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>311013.0387995447</v>
+        <v>311013.0387995449</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>73908.54814175432</v>
+        <v>73908.54814175413</v>
       </c>
       <c r="J3" t="n">
-        <v>71764.71248808627</v>
+        <v>71764.71248808624</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>52567.0420315923</v>
       </c>
       <c r="E4" t="n">
+        <v>55007.21551760907</v>
+      </c>
+      <c r="F4" t="n">
         <v>55007.21551760908</v>
-      </c>
-      <c r="F4" t="n">
-        <v>55007.21551760907</v>
       </c>
       <c r="G4" t="n">
         <v>55007.21551760908</v>
@@ -26441,25 +26441,25 @@
         <v>55636.62878938075</v>
       </c>
       <c r="J4" t="n">
-        <v>55636.62878938074</v>
+        <v>55636.62878938075</v>
       </c>
       <c r="K4" t="n">
         <v>55636.62878938075</v>
       </c>
       <c r="L4" t="n">
-        <v>55636.62878938074</v>
+        <v>55636.62878938075</v>
       </c>
       <c r="M4" t="n">
         <v>55636.62878938075</v>
       </c>
       <c r="N4" t="n">
-        <v>55636.62878938073</v>
+        <v>55636.62878938075</v>
       </c>
       <c r="O4" t="n">
         <v>55636.62878938075</v>
       </c>
       <c r="P4" t="n">
-        <v>55636.62878938074</v>
+        <v>55636.62878938075</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>50304.05548636943</v>
       </c>
       <c r="E5" t="n">
-        <v>41662.07004083533</v>
+        <v>41662.07004083534</v>
       </c>
       <c r="F5" t="n">
-        <v>41662.07004083533</v>
+        <v>41662.07004083535</v>
       </c>
       <c r="G5" t="n">
-        <v>41662.07004083533</v>
+        <v>41662.07004083535</v>
       </c>
       <c r="H5" t="n">
-        <v>41662.07004083533</v>
+        <v>41662.07004083535</v>
       </c>
       <c r="I5" t="n">
         <v>48096.6413165955</v>
@@ -26508,7 +26508,7 @@
         <v>48096.6413165955</v>
       </c>
       <c r="O5" t="n">
-        <v>48096.6413165955</v>
+        <v>48096.64131659551</v>
       </c>
       <c r="P5" t="n">
         <v>48096.64131659551</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21612.78604335079</v>
+        <v>-33301.91506660671</v>
       </c>
       <c r="C6" t="n">
-        <v>70306.02632438904</v>
+        <v>58616.89730113307</v>
       </c>
       <c r="D6" t="n">
-        <v>70306.02632438901</v>
+        <v>58616.89730113313</v>
       </c>
       <c r="E6" t="n">
-        <v>-146165.5310606898</v>
+        <v>-153437.6766111983</v>
       </c>
       <c r="F6" t="n">
-        <v>164847.5077388551</v>
+        <v>157575.3621883466</v>
       </c>
       <c r="G6" t="n">
-        <v>164847.507738855</v>
+        <v>157575.3621883465</v>
       </c>
       <c r="H6" t="n">
-        <v>164847.5077388549</v>
+        <v>157575.3621883466</v>
       </c>
       <c r="I6" t="n">
-        <v>106618.4517967037</v>
+        <v>100483.4800835521</v>
       </c>
       <c r="J6" t="n">
-        <v>108762.2874503717</v>
+        <v>102627.3157372201</v>
       </c>
       <c r="K6" t="n">
-        <v>180526.9999384581</v>
+        <v>174392.0282253062</v>
       </c>
       <c r="L6" t="n">
-        <v>180526.9999384582</v>
+        <v>174392.0282253063</v>
       </c>
       <c r="M6" t="n">
-        <v>102280.8745636958</v>
+        <v>96145.90285054424</v>
       </c>
       <c r="N6" t="n">
-        <v>180526.9999384579</v>
+        <v>174392.0282253063</v>
       </c>
       <c r="O6" t="n">
-        <v>180526.9999384581</v>
+        <v>174392.0282253064</v>
       </c>
       <c r="P6" t="n">
-        <v>180526.9999384578</v>
+        <v>174392.0282253063</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>270.4299787119588</v>
+        <v>270.4299787119589</v>
       </c>
       <c r="F3" t="n">
-        <v>270.4299787119588</v>
+        <v>270.4299787119589</v>
       </c>
       <c r="G3" t="n">
-        <v>270.4299787119587</v>
+        <v>270.4299787119589</v>
       </c>
       <c r="H3" t="n">
-        <v>270.4299787119588</v>
+        <v>270.4299787119589</v>
       </c>
       <c r="I3" t="n">
         <v>340.0458862521269</v>
@@ -26776,7 +26776,7 @@
         <v>340.0458862521269</v>
       </c>
       <c r="O3" t="n">
-        <v>340.0458862521269</v>
+        <v>340.045886252127</v>
       </c>
       <c r="P3" t="n">
         <v>340.045886252127</v>
@@ -26798,16 +26798,16 @@
         <v>274.2838073416025</v>
       </c>
       <c r="E4" t="n">
-        <v>588.2680346203065</v>
+        <v>588.2680346203066</v>
       </c>
       <c r="F4" t="n">
-        <v>588.2680346203065</v>
+        <v>588.2680346203067</v>
       </c>
       <c r="G4" t="n">
-        <v>588.2680346203065</v>
+        <v>588.2680346203067</v>
       </c>
       <c r="H4" t="n">
-        <v>588.2680346203065</v>
+        <v>588.2680346203067</v>
       </c>
       <c r="I4" t="n">
         <v>669.1388321759725</v>
@@ -26822,13 +26822,13 @@
         <v>669.1388321759725</v>
       </c>
       <c r="M4" t="n">
-        <v>669.1388321759727</v>
+        <v>669.1388321759725</v>
       </c>
       <c r="N4" t="n">
         <v>669.1388321759725</v>
       </c>
       <c r="O4" t="n">
-        <v>669.1388321759725</v>
+        <v>669.1388321759727</v>
       </c>
       <c r="P4" t="n">
         <v>669.1388321759727</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>270.4299787119588</v>
+        <v>270.4299787119589</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>69.61590754016817</v>
+        <v>69.615907540168</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>313.984227278704</v>
+        <v>313.9842272787041</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>80.87079755566606</v>
+        <v>80.87079755566583</v>
       </c>
       <c r="J4" t="n">
-        <v>274.2838073416026</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>313.984227278704</v>
+        <v>313.9842272787041</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.087155693314406</v>
+        <v>1.087155693314407</v>
       </c>
       <c r="H11" t="n">
         <v>11.13383324415617</v>
       </c>
       <c r="I11" t="n">
-        <v>41.91256986650369</v>
+        <v>41.91256986650372</v>
       </c>
       <c r="J11" t="n">
-        <v>92.27098052544369</v>
+        <v>92.27098052544373</v>
       </c>
       <c r="K11" t="n">
         <v>138.2902810234426</v>
@@ -31770,31 +31770,31 @@
         <v>171.5613220727134</v>
       </c>
       <c r="M11" t="n">
-        <v>190.8950271336934</v>
+        <v>190.8950271336935</v>
       </c>
       <c r="N11" t="n">
-        <v>193.983908247323</v>
+        <v>193.9839082473231</v>
       </c>
       <c r="O11" t="n">
         <v>183.1735038219279</v>
       </c>
       <c r="P11" t="n">
-        <v>156.3343476432284</v>
+        <v>156.3343476432285</v>
       </c>
       <c r="Q11" t="n">
         <v>117.4005843764062</v>
       </c>
       <c r="R11" t="n">
-        <v>68.29104382016115</v>
+        <v>68.29104382016118</v>
       </c>
       <c r="S11" t="n">
-        <v>24.77356036140206</v>
+        <v>24.77356036140207</v>
       </c>
       <c r="T11" t="n">
-        <v>4.759024047483817</v>
+        <v>4.759024047483819</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0869724554651525</v>
+        <v>0.08697245546515255</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5816795768521379</v>
+        <v>0.5816795768521381</v>
       </c>
       <c r="H12" t="n">
-        <v>5.617800123808806</v>
+        <v>5.617800123808808</v>
       </c>
       <c r="I12" t="n">
-        <v>20.02712578197054</v>
+        <v>20.02712578197055</v>
       </c>
       <c r="J12" t="n">
-        <v>54.95596388145572</v>
+        <v>54.95596388145574</v>
       </c>
       <c r="K12" t="n">
-        <v>93.92849553054896</v>
+        <v>93.92849553054899</v>
       </c>
       <c r="L12" t="n">
         <v>126.2984537371276</v>
       </c>
       <c r="M12" t="n">
-        <v>147.3843383980175</v>
+        <v>147.3843383980176</v>
       </c>
       <c r="N12" t="n">
         <v>151.2851632796269</v>
       </c>
       <c r="O12" t="n">
-        <v>138.3963684451663</v>
+        <v>138.3963684451664</v>
       </c>
       <c r="P12" t="n">
-        <v>111.0752869166157</v>
+        <v>111.0752869166158</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.25088773993255</v>
+        <v>74.25088773993258</v>
       </c>
       <c r="R12" t="n">
-        <v>36.11515828911784</v>
+        <v>36.11515828911785</v>
       </c>
       <c r="S12" t="n">
         <v>10.80444301740703</v>
       </c>
       <c r="T12" t="n">
-        <v>2.344576890908397</v>
+        <v>2.344576890908398</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03826839321395645</v>
+        <v>0.03826839321395647</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4876606173494339</v>
+        <v>0.4876606173494341</v>
       </c>
       <c r="H13" t="n">
-        <v>4.335746216070424</v>
+        <v>4.335746216070426</v>
       </c>
       <c r="I13" t="n">
-        <v>14.66528474719934</v>
+        <v>14.66528474719935</v>
       </c>
       <c r="J13" t="n">
-        <v>34.47760564660497</v>
+        <v>34.47760564660499</v>
       </c>
       <c r="K13" t="n">
-        <v>56.65729717932513</v>
+        <v>56.65729717932515</v>
       </c>
       <c r="L13" t="n">
-        <v>72.50183396484221</v>
+        <v>72.50183396484225</v>
       </c>
       <c r="M13" t="n">
-        <v>76.44301840869352</v>
+        <v>76.44301840869356</v>
       </c>
       <c r="N13" t="n">
-        <v>74.62537428948205</v>
+        <v>74.6253742894821</v>
       </c>
       <c r="O13" t="n">
-        <v>68.92861162317274</v>
+        <v>68.92861162317277</v>
       </c>
       <c r="P13" t="n">
-        <v>58.98033502924424</v>
+        <v>58.98033502924426</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.83492678550578</v>
+        <v>40.8349267855058</v>
       </c>
       <c r="R13" t="n">
-        <v>21.92699466736636</v>
+        <v>21.92699466736637</v>
       </c>
       <c r="S13" t="n">
-        <v>8.498594576898768</v>
+        <v>8.498594576898771</v>
       </c>
       <c r="T13" t="n">
-        <v>2.083640819583944</v>
+        <v>2.083640819583945</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02659967003724188</v>
+        <v>0.02659967003724189</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.087155693314406</v>
+        <v>1.087155693314407</v>
       </c>
       <c r="H14" t="n">
         <v>11.13383324415617</v>
       </c>
       <c r="I14" t="n">
-        <v>41.91256986650369</v>
+        <v>41.91256986650372</v>
       </c>
       <c r="J14" t="n">
-        <v>92.27098052544369</v>
+        <v>92.27098052544373</v>
       </c>
       <c r="K14" t="n">
         <v>138.2902810234426</v>
@@ -32007,31 +32007,31 @@
         <v>171.5613220727134</v>
       </c>
       <c r="M14" t="n">
-        <v>190.8950271336934</v>
+        <v>190.8950271336935</v>
       </c>
       <c r="N14" t="n">
-        <v>193.983908247323</v>
+        <v>193.9839082473231</v>
       </c>
       <c r="O14" t="n">
         <v>183.1735038219279</v>
       </c>
       <c r="P14" t="n">
-        <v>156.3343476432284</v>
+        <v>156.3343476432285</v>
       </c>
       <c r="Q14" t="n">
         <v>117.4005843764062</v>
       </c>
       <c r="R14" t="n">
-        <v>68.29104382016115</v>
+        <v>68.29104382016118</v>
       </c>
       <c r="S14" t="n">
-        <v>24.77356036140206</v>
+        <v>24.77356036140207</v>
       </c>
       <c r="T14" t="n">
-        <v>4.759024047483817</v>
+        <v>4.759024047483819</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0869724554651525</v>
+        <v>0.08697245546515255</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5816795768521379</v>
+        <v>0.5816795768521381</v>
       </c>
       <c r="H15" t="n">
-        <v>5.617800123808806</v>
+        <v>5.617800123808808</v>
       </c>
       <c r="I15" t="n">
-        <v>20.02712578197054</v>
+        <v>20.02712578197055</v>
       </c>
       <c r="J15" t="n">
-        <v>54.95596388145572</v>
+        <v>54.95596388145574</v>
       </c>
       <c r="K15" t="n">
-        <v>93.92849553054896</v>
+        <v>93.92849553054899</v>
       </c>
       <c r="L15" t="n">
         <v>126.2984537371276</v>
       </c>
       <c r="M15" t="n">
-        <v>147.3843383980175</v>
+        <v>147.3843383980176</v>
       </c>
       <c r="N15" t="n">
         <v>151.2851632796269</v>
       </c>
       <c r="O15" t="n">
-        <v>138.3963684451663</v>
+        <v>138.3963684451664</v>
       </c>
       <c r="P15" t="n">
-        <v>111.0752869166157</v>
+        <v>111.0752869166158</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.25088773993255</v>
+        <v>74.25088773993258</v>
       </c>
       <c r="R15" t="n">
-        <v>36.11515828911784</v>
+        <v>36.11515828911785</v>
       </c>
       <c r="S15" t="n">
         <v>10.80444301740703</v>
       </c>
       <c r="T15" t="n">
-        <v>2.344576890908397</v>
+        <v>2.344576890908398</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03826839321395645</v>
+        <v>0.03826839321395647</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4876606173494339</v>
+        <v>0.4876606173494341</v>
       </c>
       <c r="H16" t="n">
-        <v>4.335746216070424</v>
+        <v>4.335746216070426</v>
       </c>
       <c r="I16" t="n">
-        <v>14.66528474719934</v>
+        <v>14.66528474719935</v>
       </c>
       <c r="J16" t="n">
-        <v>34.47760564660497</v>
+        <v>34.47760564660499</v>
       </c>
       <c r="K16" t="n">
-        <v>56.65729717932513</v>
+        <v>56.65729717932515</v>
       </c>
       <c r="L16" t="n">
-        <v>72.50183396484221</v>
+        <v>72.50183396484225</v>
       </c>
       <c r="M16" t="n">
-        <v>76.44301840869352</v>
+        <v>76.44301840869356</v>
       </c>
       <c r="N16" t="n">
-        <v>74.62537428948205</v>
+        <v>74.6253742894821</v>
       </c>
       <c r="O16" t="n">
-        <v>68.92861162317274</v>
+        <v>68.92861162317277</v>
       </c>
       <c r="P16" t="n">
-        <v>58.98033502924424</v>
+        <v>58.98033502924426</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.83492678550578</v>
+        <v>40.8349267855058</v>
       </c>
       <c r="R16" t="n">
-        <v>21.92699466736636</v>
+        <v>21.92699466736637</v>
       </c>
       <c r="S16" t="n">
-        <v>8.498594576898768</v>
+        <v>8.498594576898771</v>
       </c>
       <c r="T16" t="n">
-        <v>2.083640819583944</v>
+        <v>2.083640819583945</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02659967003724188</v>
+        <v>0.02659967003724189</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.087155693314406</v>
+        <v>1.087155693314407</v>
       </c>
       <c r="H17" t="n">
-        <v>11.13383324415616</v>
+        <v>11.13383324415617</v>
       </c>
       <c r="I17" t="n">
-        <v>41.91256986650368</v>
+        <v>41.91256986650372</v>
       </c>
       <c r="J17" t="n">
-        <v>92.27098052544366</v>
+        <v>92.27098052544373</v>
       </c>
       <c r="K17" t="n">
-        <v>138.2902810234425</v>
+        <v>138.2902810234426</v>
       </c>
       <c r="L17" t="n">
-        <v>171.5613220727133</v>
+        <v>171.5613220727134</v>
       </c>
       <c r="M17" t="n">
-        <v>190.8950271336933</v>
+        <v>190.8950271336935</v>
       </c>
       <c r="N17" t="n">
-        <v>193.9839082473229</v>
+        <v>193.9839082473231</v>
       </c>
       <c r="O17" t="n">
-        <v>183.1735038219278</v>
+        <v>183.1735038219279</v>
       </c>
       <c r="P17" t="n">
-        <v>156.3343476432283</v>
+        <v>156.3343476432285</v>
       </c>
       <c r="Q17" t="n">
-        <v>117.4005843764061</v>
+        <v>117.4005843764062</v>
       </c>
       <c r="R17" t="n">
-        <v>68.29104382016112</v>
+        <v>68.29104382016118</v>
       </c>
       <c r="S17" t="n">
-        <v>24.77356036140205</v>
+        <v>24.77356036140207</v>
       </c>
       <c r="T17" t="n">
-        <v>4.759024047483815</v>
+        <v>4.759024047483819</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08697245546515246</v>
+        <v>0.08697245546515255</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5816795768521377</v>
+        <v>0.5816795768521381</v>
       </c>
       <c r="H18" t="n">
-        <v>5.617800123808804</v>
+        <v>5.617800123808808</v>
       </c>
       <c r="I18" t="n">
-        <v>20.02712578197053</v>
+        <v>20.02712578197055</v>
       </c>
       <c r="J18" t="n">
-        <v>54.95596388145569</v>
+        <v>54.95596388145574</v>
       </c>
       <c r="K18" t="n">
-        <v>93.92849553054891</v>
+        <v>93.92849553054899</v>
       </c>
       <c r="L18" t="n">
-        <v>126.2984537371275</v>
+        <v>126.2984537371276</v>
       </c>
       <c r="M18" t="n">
-        <v>147.3843383980175</v>
+        <v>147.3843383980176</v>
       </c>
       <c r="N18" t="n">
-        <v>151.2851632796268</v>
+        <v>151.2851632796269</v>
       </c>
       <c r="O18" t="n">
-        <v>138.3963684451663</v>
+        <v>138.3963684451664</v>
       </c>
       <c r="P18" t="n">
-        <v>111.0752869166157</v>
+        <v>111.0752869166158</v>
       </c>
       <c r="Q18" t="n">
-        <v>74.25088773993252</v>
+        <v>74.25088773993258</v>
       </c>
       <c r="R18" t="n">
-        <v>36.11515828911782</v>
+        <v>36.11515828911785</v>
       </c>
       <c r="S18" t="n">
-        <v>10.80444301740702</v>
+        <v>10.80444301740703</v>
       </c>
       <c r="T18" t="n">
-        <v>2.344576890908396</v>
+        <v>2.344576890908398</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03826839321395644</v>
+        <v>0.03826839321395647</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4876606173494337</v>
+        <v>0.4876606173494341</v>
       </c>
       <c r="H19" t="n">
-        <v>4.335746216070422</v>
+        <v>4.335746216070426</v>
       </c>
       <c r="I19" t="n">
-        <v>14.66528474719934</v>
+        <v>14.66528474719935</v>
       </c>
       <c r="J19" t="n">
-        <v>34.47760564660496</v>
+        <v>34.47760564660499</v>
       </c>
       <c r="K19" t="n">
-        <v>56.6572971793251</v>
+        <v>56.65729717932515</v>
       </c>
       <c r="L19" t="n">
-        <v>72.50183396484218</v>
+        <v>72.50183396484225</v>
       </c>
       <c r="M19" t="n">
-        <v>76.44301840869349</v>
+        <v>76.44301840869356</v>
       </c>
       <c r="N19" t="n">
-        <v>74.62537428948202</v>
+        <v>74.6253742894821</v>
       </c>
       <c r="O19" t="n">
-        <v>68.92861162317271</v>
+        <v>68.92861162317277</v>
       </c>
       <c r="P19" t="n">
-        <v>58.98033502924421</v>
+        <v>58.98033502924426</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.83492678550576</v>
+        <v>40.8349267855058</v>
       </c>
       <c r="R19" t="n">
-        <v>21.92699466736635</v>
+        <v>21.92699466736637</v>
       </c>
       <c r="S19" t="n">
-        <v>8.498594576898764</v>
+        <v>8.498594576898771</v>
       </c>
       <c r="T19" t="n">
-        <v>2.083640819583943</v>
+        <v>2.083640819583945</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02659967003724187</v>
+        <v>0.02659967003724189</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.087155693314406</v>
+        <v>1.087155693314407</v>
       </c>
       <c r="H20" t="n">
         <v>11.13383324415617</v>
       </c>
       <c r="I20" t="n">
-        <v>41.91256986650369</v>
+        <v>41.91256986650372</v>
       </c>
       <c r="J20" t="n">
-        <v>92.27098052544368</v>
+        <v>92.27098052544373</v>
       </c>
       <c r="K20" t="n">
-        <v>138.2902810234425</v>
+        <v>138.2902810234426</v>
       </c>
       <c r="L20" t="n">
-        <v>171.5613220727133</v>
+        <v>171.5613220727134</v>
       </c>
       <c r="M20" t="n">
-        <v>190.8950271336934</v>
+        <v>190.8950271336935</v>
       </c>
       <c r="N20" t="n">
-        <v>193.9839082473229</v>
+        <v>193.9839082473231</v>
       </c>
       <c r="O20" t="n">
-        <v>183.1735038219278</v>
+        <v>183.1735038219279</v>
       </c>
       <c r="P20" t="n">
-        <v>156.3343476432284</v>
+        <v>156.3343476432285</v>
       </c>
       <c r="Q20" t="n">
         <v>117.4005843764062</v>
       </c>
       <c r="R20" t="n">
-        <v>68.29104382016114</v>
+        <v>68.29104382016118</v>
       </c>
       <c r="S20" t="n">
-        <v>24.77356036140206</v>
+        <v>24.77356036140207</v>
       </c>
       <c r="T20" t="n">
-        <v>4.759024047483816</v>
+        <v>4.759024047483819</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08697245546515249</v>
+        <v>0.08697245546515255</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5816795768521378</v>
+        <v>0.5816795768521381</v>
       </c>
       <c r="H21" t="n">
-        <v>5.617800123808805</v>
+        <v>5.617800123808808</v>
       </c>
       <c r="I21" t="n">
-        <v>20.02712578197054</v>
+        <v>20.02712578197055</v>
       </c>
       <c r="J21" t="n">
-        <v>54.95596388145571</v>
+        <v>54.95596388145574</v>
       </c>
       <c r="K21" t="n">
-        <v>93.92849553054893</v>
+        <v>93.92849553054899</v>
       </c>
       <c r="L21" t="n">
-        <v>126.2984537371275</v>
+        <v>126.2984537371276</v>
       </c>
       <c r="M21" t="n">
-        <v>147.3843383980175</v>
+        <v>147.3843383980176</v>
       </c>
       <c r="N21" t="n">
-        <v>151.2851632796268</v>
+        <v>151.2851632796269</v>
       </c>
       <c r="O21" t="n">
-        <v>138.3963684451663</v>
+        <v>138.3963684451664</v>
       </c>
       <c r="P21" t="n">
-        <v>111.0752869166157</v>
+        <v>111.0752869166158</v>
       </c>
       <c r="Q21" t="n">
-        <v>74.25088773993254</v>
+        <v>74.25088773993258</v>
       </c>
       <c r="R21" t="n">
-        <v>36.11515828911783</v>
+        <v>36.11515828911785</v>
       </c>
       <c r="S21" t="n">
-        <v>10.80444301740702</v>
+        <v>10.80444301740703</v>
       </c>
       <c r="T21" t="n">
-        <v>2.344576890908396</v>
+        <v>2.344576890908398</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03826839321395645</v>
+        <v>0.03826839321395647</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4876606173494338</v>
+        <v>0.4876606173494341</v>
       </c>
       <c r="H22" t="n">
-        <v>4.335746216070423</v>
+        <v>4.335746216070426</v>
       </c>
       <c r="I22" t="n">
-        <v>14.66528474719934</v>
+        <v>14.66528474719935</v>
       </c>
       <c r="J22" t="n">
-        <v>34.47760564660496</v>
+        <v>34.47760564660499</v>
       </c>
       <c r="K22" t="n">
-        <v>56.65729717932511</v>
+        <v>56.65729717932515</v>
       </c>
       <c r="L22" t="n">
-        <v>72.50183396484219</v>
+        <v>72.50183396484225</v>
       </c>
       <c r="M22" t="n">
-        <v>76.4430184086935</v>
+        <v>76.44301840869356</v>
       </c>
       <c r="N22" t="n">
-        <v>74.62537428948204</v>
+        <v>74.6253742894821</v>
       </c>
       <c r="O22" t="n">
-        <v>68.92861162317273</v>
+        <v>68.92861162317277</v>
       </c>
       <c r="P22" t="n">
-        <v>58.98033502924422</v>
+        <v>58.98033502924426</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.83492678550577</v>
+        <v>40.8349267855058</v>
       </c>
       <c r="R22" t="n">
-        <v>21.92699466736635</v>
+        <v>21.92699466736637</v>
       </c>
       <c r="S22" t="n">
-        <v>8.498594576898766</v>
+        <v>8.498594576898771</v>
       </c>
       <c r="T22" t="n">
-        <v>2.083640819583944</v>
+        <v>2.083640819583945</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02659967003724188</v>
+        <v>0.02659967003724189</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34134,7 +34134,7 @@
         <v>116.0239981438853</v>
       </c>
       <c r="K41" t="n">
-        <v>173.8898970988703</v>
+        <v>173.8898970988704</v>
       </c>
       <c r="L41" t="n">
         <v>215.7257937476685</v>
@@ -34143,7 +34143,7 @@
         <v>240.0365114547489</v>
       </c>
       <c r="N41" t="n">
-        <v>243.9205531605332</v>
+        <v>243.9205531605333</v>
       </c>
       <c r="O41" t="n">
         <v>230.3272615769369</v>
@@ -34155,13 +34155,13 @@
         <v>147.6226339658668</v>
       </c>
       <c r="R41" t="n">
-        <v>85.87098453179968</v>
+        <v>85.87098453179969</v>
       </c>
       <c r="S41" t="n">
-        <v>31.15093721797123</v>
+        <v>31.15093721797124</v>
       </c>
       <c r="T41" t="n">
-        <v>5.984124088718333</v>
+        <v>5.984124088718334</v>
       </c>
       <c r="U41" t="n">
         <v>0.1093614910559603</v>
@@ -34201,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7314194534479712</v>
+        <v>0.7314194534479713</v>
       </c>
       <c r="H42" t="n">
-        <v>7.063972089879091</v>
+        <v>7.063972089879092</v>
       </c>
       <c r="I42" t="n">
-        <v>25.18264346301129</v>
+        <v>25.1826434630113</v>
       </c>
       <c r="J42" t="n">
-        <v>69.10309845053837</v>
+        <v>69.10309845053838</v>
       </c>
       <c r="K42" t="n">
-        <v>118.1082018315524</v>
+        <v>118.1082018315525</v>
       </c>
       <c r="L42" t="n">
-        <v>158.8110528199202</v>
+        <v>158.8110528199203</v>
       </c>
       <c r="M42" t="n">
         <v>185.3250080074092</v>
@@ -34225,16 +34225,16 @@
         <v>190.2300095175932</v>
       </c>
       <c r="O42" t="n">
-        <v>174.0232942596144</v>
+        <v>174.0232942596145</v>
       </c>
       <c r="P42" t="n">
         <v>139.6690358079727</v>
       </c>
       <c r="Q42" t="n">
-        <v>93.36505163662173</v>
+        <v>93.36505163662174</v>
       </c>
       <c r="R42" t="n">
-        <v>45.41216571495388</v>
+        <v>45.41216571495389</v>
       </c>
       <c r="S42" t="n">
         <v>13.58579554979016</v>
@@ -34280,37 +34280,37 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6131974997989174</v>
+        <v>0.6131974997989175</v>
       </c>
       <c r="H43" t="n">
-        <v>5.451883225484924</v>
+        <v>5.451883225484925</v>
       </c>
       <c r="I43" t="n">
         <v>18.44052117577109</v>
       </c>
       <c r="J43" t="n">
-        <v>43.35306323578345</v>
+        <v>43.35306323578346</v>
       </c>
       <c r="K43" t="n">
         <v>71.2424004311833</v>
       </c>
       <c r="L43" t="n">
-        <v>91.16574465192269</v>
+        <v>91.16574465192271</v>
       </c>
       <c r="M43" t="n">
-        <v>96.12149535484301</v>
+        <v>96.12149535484302</v>
       </c>
       <c r="N43" t="n">
-        <v>93.83594103741075</v>
+        <v>93.83594103741078</v>
       </c>
       <c r="O43" t="n">
-        <v>86.67267933521428</v>
+        <v>86.6726793352143</v>
       </c>
       <c r="P43" t="n">
-        <v>74.1634503393163</v>
+        <v>74.16345033931631</v>
       </c>
       <c r="Q43" t="n">
-        <v>51.34692882407116</v>
+        <v>51.34692882407117</v>
       </c>
       <c r="R43" t="n">
         <v>27.5715894000495</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.367018638199505</v>
+        <v>1.367018638199504</v>
       </c>
       <c r="H44" t="n">
         <v>13.99997962846068</v>
       </c>
       <c r="I44" t="n">
-        <v>52.70198604918645</v>
+        <v>52.70198604918644</v>
       </c>
       <c r="J44" t="n">
         <v>116.0239981438853</v>
@@ -34377,22 +34377,22 @@
         <v>215.7257937476685</v>
       </c>
       <c r="M44" t="n">
-        <v>240.036511454749</v>
+        <v>240.0365114547489</v>
       </c>
       <c r="N44" t="n">
         <v>243.9205531605333</v>
       </c>
       <c r="O44" t="n">
-        <v>230.327261576937</v>
+        <v>230.3272615769369</v>
       </c>
       <c r="P44" t="n">
-        <v>196.5789889463867</v>
+        <v>196.5789889463866</v>
       </c>
       <c r="Q44" t="n">
-        <v>147.6226339658669</v>
+        <v>147.6226339658668</v>
       </c>
       <c r="R44" t="n">
-        <v>85.87098453179971</v>
+        <v>85.87098453179969</v>
       </c>
       <c r="S44" t="n">
         <v>31.15093721797124</v>
@@ -34401,7 +34401,7 @@
         <v>5.984124088718334</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1093614910559604</v>
+        <v>0.1093614910559603</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7314194534479714</v>
+        <v>0.7314194534479713</v>
       </c>
       <c r="H45" t="n">
-        <v>7.063972089879093</v>
+        <v>7.063972089879092</v>
       </c>
       <c r="I45" t="n">
         <v>25.1826434630113</v>
       </c>
       <c r="J45" t="n">
-        <v>69.1030984505384</v>
+        <v>69.10309845053838</v>
       </c>
       <c r="K45" t="n">
         <v>118.1082018315525</v>
@@ -34468,7 +34468,7 @@
         <v>139.6690358079727</v>
       </c>
       <c r="Q45" t="n">
-        <v>93.36505163662176</v>
+        <v>93.36505163662174</v>
       </c>
       <c r="R45" t="n">
         <v>45.41216571495389</v>
@@ -34477,10 +34477,10 @@
         <v>13.58579554979016</v>
       </c>
       <c r="T45" t="n">
-        <v>2.948133674204761</v>
+        <v>2.94813367420476</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04811970088473498</v>
+        <v>0.04811970088473497</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,7 +34517,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6131974997989176</v>
+        <v>0.6131974997989175</v>
       </c>
       <c r="H46" t="n">
         <v>5.451883225484925</v>
@@ -34526,40 +34526,40 @@
         <v>18.44052117577109</v>
       </c>
       <c r="J46" t="n">
-        <v>43.35306323578347</v>
+        <v>43.35306323578346</v>
       </c>
       <c r="K46" t="n">
-        <v>71.24240043118331</v>
+        <v>71.2424004311833</v>
       </c>
       <c r="L46" t="n">
-        <v>91.16574465192272</v>
+        <v>91.16574465192271</v>
       </c>
       <c r="M46" t="n">
-        <v>96.12149535484303</v>
+        <v>96.12149535484302</v>
       </c>
       <c r="N46" t="n">
-        <v>93.83594103741079</v>
+        <v>93.83594103741078</v>
       </c>
       <c r="O46" t="n">
-        <v>86.67267933521431</v>
+        <v>86.6726793352143</v>
       </c>
       <c r="P46" t="n">
-        <v>74.16345033931633</v>
+        <v>74.16345033931631</v>
       </c>
       <c r="Q46" t="n">
-        <v>51.34692882407118</v>
+        <v>51.34692882407117</v>
       </c>
       <c r="R46" t="n">
         <v>27.5715894000495</v>
       </c>
       <c r="S46" t="n">
-        <v>10.6863600646775</v>
+        <v>10.68636006467749</v>
       </c>
       <c r="T46" t="n">
-        <v>2.620025680959011</v>
+        <v>2.62002568095901</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03344713635266827</v>
+        <v>0.03344713635266826</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.059542658712941</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M3" t="n">
-        <v>223.659467138076</v>
+        <v>0.5579630241179461</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O3" t="n">
         <v>270.5854737144654</v>
@@ -34798,7 +34798,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.059542658712941</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>140.6484434930818</v>
@@ -35023,10 +35023,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
-        <v>134.1933268726389</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="O6" t="n">
         <v>270.5854737144654</v>
@@ -35035,7 +35035,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q6" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,10 +35260,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
-        <v>223.659467138076</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="O9" t="n">
         <v>270.5854737144654</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.61170339088127</v>
+        <v>91.61170339088132</v>
       </c>
       <c r="K11" t="n">
         <v>260.8139053285979</v>
       </c>
       <c r="L11" t="n">
-        <v>376.0567306094442</v>
+        <v>376.0567306094443</v>
       </c>
       <c r="M11" t="n">
-        <v>433.8015245696483</v>
+        <v>433.8015245696484</v>
       </c>
       <c r="N11" t="n">
-        <v>425.1469726291103</v>
+        <v>425.1469726291105</v>
       </c>
       <c r="O11" t="n">
-        <v>354.8599361990384</v>
+        <v>354.8599361990385</v>
       </c>
       <c r="P11" t="n">
-        <v>265.5528332801825</v>
+        <v>265.5528332801827</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.4601270351188</v>
+        <v>121.4601270351189</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>62.42395463548087</v>
+        <v>62.42395463548089</v>
       </c>
       <c r="K12" t="n">
-        <v>234.5769390236307</v>
+        <v>234.5769390236308</v>
       </c>
       <c r="L12" t="n">
-        <v>376.8818925673478</v>
+        <v>140.5404559590329</v>
       </c>
       <c r="M12" t="n">
-        <v>493.1369216240496</v>
+        <v>493.1369216240497</v>
       </c>
       <c r="N12" t="n">
         <v>521.7430633156725</v>
       </c>
       <c r="O12" t="n">
-        <v>172.6404055513173</v>
+        <v>408.9818421596318</v>
       </c>
       <c r="P12" t="n">
-        <v>311.6515190731783</v>
+        <v>311.6515190731784</v>
       </c>
       <c r="Q12" t="n">
-        <v>156.2490372513446</v>
+        <v>156.2490372513447</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>41.88288746149178</v>
+        <v>41.8828874614918</v>
       </c>
       <c r="L13" t="n">
         <v>109.9629641938515</v>
@@ -35579,13 +35579,13 @@
         <v>126.6404264056021</v>
       </c>
       <c r="N13" t="n">
-        <v>128.8223939541199</v>
+        <v>128.82239395412</v>
       </c>
       <c r="O13" t="n">
         <v>103.4968196531438</v>
       </c>
       <c r="P13" t="n">
-        <v>65.10235692792807</v>
+        <v>65.1023569279281</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.61170339088127</v>
+        <v>91.61170339088132</v>
       </c>
       <c r="K14" t="n">
         <v>260.8139053285979</v>
       </c>
       <c r="L14" t="n">
-        <v>376.0567306094442</v>
+        <v>376.0567306094443</v>
       </c>
       <c r="M14" t="n">
-        <v>433.8015245696483</v>
+        <v>433.8015245696484</v>
       </c>
       <c r="N14" t="n">
-        <v>425.1469726291103</v>
+        <v>425.1469726291105</v>
       </c>
       <c r="O14" t="n">
-        <v>354.8599361990384</v>
+        <v>354.8599361990385</v>
       </c>
       <c r="P14" t="n">
-        <v>265.5528332801825</v>
+        <v>265.5528332801827</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.4601270351188</v>
+        <v>121.4601270351189</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>216.9084943021415</v>
+        <v>60.6594570507977</v>
       </c>
       <c r="L15" t="n">
         <v>376.8818925673478</v>
       </c>
       <c r="M15" t="n">
-        <v>493.1369216240496</v>
+        <v>493.1369216240497</v>
       </c>
       <c r="N15" t="n">
         <v>521.7430633156725</v>
       </c>
       <c r="O15" t="n">
-        <v>408.9818421596317</v>
+        <v>408.9818421596318</v>
       </c>
       <c r="P15" t="n">
-        <v>311.6515190731783</v>
+        <v>311.6515190731784</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>156.2490372513447</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>41.88288746149178</v>
+        <v>41.8828874614918</v>
       </c>
       <c r="L16" t="n">
         <v>109.9629641938515</v>
@@ -35816,13 +35816,13 @@
         <v>126.6404264056021</v>
       </c>
       <c r="N16" t="n">
-        <v>128.8223939541199</v>
+        <v>128.82239395412</v>
       </c>
       <c r="O16" t="n">
         <v>103.4968196531438</v>
       </c>
       <c r="P16" t="n">
-        <v>65.10235692792807</v>
+        <v>65.1023569279281</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.61170339088125</v>
+        <v>91.61170339088132</v>
       </c>
       <c r="K17" t="n">
-        <v>260.8139053285978</v>
+        <v>260.8139053285979</v>
       </c>
       <c r="L17" t="n">
-        <v>376.0567306094441</v>
+        <v>376.0567306094443</v>
       </c>
       <c r="M17" t="n">
-        <v>433.8015245696482</v>
+        <v>433.8015245696484</v>
       </c>
       <c r="N17" t="n">
-        <v>425.1469726291102</v>
+        <v>425.1469726291105</v>
       </c>
       <c r="O17" t="n">
-        <v>354.8599361990384</v>
+        <v>354.8599361990385</v>
       </c>
       <c r="P17" t="n">
-        <v>265.5528332801825</v>
+        <v>265.5528332801827</v>
       </c>
       <c r="Q17" t="n">
-        <v>121.4601270351188</v>
+        <v>121.4601270351189</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>62.42395463548089</v>
       </c>
       <c r="K18" t="n">
-        <v>234.5769390236307</v>
+        <v>234.5769390236308</v>
       </c>
       <c r="L18" t="n">
-        <v>376.8818925673477</v>
+        <v>376.8818925673478</v>
       </c>
       <c r="M18" t="n">
-        <v>493.1369216240496</v>
+        <v>256.7954850157358</v>
       </c>
       <c r="N18" t="n">
-        <v>521.7430633156724</v>
+        <v>521.7430633156725</v>
       </c>
       <c r="O18" t="n">
-        <v>408.9818421596316</v>
+        <v>408.9818421596318</v>
       </c>
       <c r="P18" t="n">
-        <v>293.9830743516897</v>
+        <v>311.6515190731784</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>156.2490372513447</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>41.88288746149175</v>
+        <v>41.8828874614918</v>
       </c>
       <c r="L19" t="n">
         <v>109.9629641938515</v>
@@ -36053,13 +36053,13 @@
         <v>126.6404264056021</v>
       </c>
       <c r="N19" t="n">
-        <v>128.8223939541199</v>
+        <v>128.82239395412</v>
       </c>
       <c r="O19" t="n">
         <v>103.4968196531438</v>
       </c>
       <c r="P19" t="n">
-        <v>65.10235692792804</v>
+        <v>65.1023569279281</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.61170339088126</v>
+        <v>91.61170339088132</v>
       </c>
       <c r="K20" t="n">
         <v>260.8139053285979</v>
       </c>
       <c r="L20" t="n">
-        <v>376.0567306094442</v>
+        <v>376.0567306094443</v>
       </c>
       <c r="M20" t="n">
-        <v>433.8015245696483</v>
+        <v>433.8015245696484</v>
       </c>
       <c r="N20" t="n">
-        <v>425.1469726291103</v>
+        <v>425.1469726291105</v>
       </c>
       <c r="O20" t="n">
-        <v>354.8599361990384</v>
+        <v>354.8599361990385</v>
       </c>
       <c r="P20" t="n">
-        <v>265.5528332801825</v>
+        <v>265.5528332801827</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.4601270351188</v>
+        <v>121.4601270351189</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>62.42395463548086</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>234.5769390236307</v>
+        <v>234.5769390236308</v>
       </c>
       <c r="L21" t="n">
-        <v>376.8818925673477</v>
+        <v>376.8818925673478</v>
       </c>
       <c r="M21" t="n">
-        <v>256.7954850157353</v>
+        <v>475.4684769025611</v>
       </c>
       <c r="N21" t="n">
         <v>521.7430633156725</v>
       </c>
       <c r="O21" t="n">
-        <v>408.9818421596317</v>
+        <v>408.9818421596318</v>
       </c>
       <c r="P21" t="n">
-        <v>311.6515190731783</v>
+        <v>311.6515190731784</v>
       </c>
       <c r="Q21" t="n">
-        <v>156.2490372513446</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>41.88288746149176</v>
+        <v>41.8828874614918</v>
       </c>
       <c r="L22" t="n">
         <v>109.9629641938515</v>
@@ -36290,13 +36290,13 @@
         <v>126.6404264056021</v>
       </c>
       <c r="N22" t="n">
-        <v>128.8223939541199</v>
+        <v>128.82239395412</v>
       </c>
       <c r="O22" t="n">
         <v>103.4968196531438</v>
       </c>
       <c r="P22" t="n">
-        <v>65.10235692792807</v>
+        <v>65.1023569279281</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>531.0775912334412</v>
       </c>
       <c r="N27" t="n">
-        <v>413.5023617933113</v>
+        <v>560.6879095536389</v>
       </c>
       <c r="O27" t="n">
         <v>444.6087679740798</v>
@@ -36694,7 +36694,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q27" t="n">
-        <v>175.3632011480338</v>
+        <v>28.17765338770664</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.57108920456352</v>
       </c>
       <c r="K30" t="n">
         <v>258.7566453246342</v>
@@ -36919,7 +36919,7 @@
         <v>409.3944916501404</v>
       </c>
       <c r="M30" t="n">
-        <v>531.0775912334412</v>
+        <v>383.8920434731136</v>
       </c>
       <c r="N30" t="n">
         <v>560.6879095536389</v>
@@ -36931,7 +36931,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q30" t="n">
-        <v>104.7487425922701</v>
+        <v>175.3632011480338</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.57108920456352</v>
       </c>
       <c r="K36" t="n">
         <v>258.7566453246342</v>
@@ -37396,7 +37396,7 @@
         <v>531.0775912334412</v>
       </c>
       <c r="N36" t="n">
-        <v>560.6879095536389</v>
+        <v>413.5023617933113</v>
       </c>
       <c r="O36" t="n">
         <v>444.6087679740798</v>
@@ -37405,7 +37405,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q36" t="n">
-        <v>104.7487425922706</v>
+        <v>175.3632011480338</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>115.3647210093229</v>
       </c>
       <c r="K38" t="n">
-        <v>296.4135214040253</v>
+        <v>296.4135214040257</v>
       </c>
       <c r="L38" t="n">
         <v>420.2212022843993</v>
@@ -37624,7 +37624,7 @@
         <v>76.57108920456352</v>
       </c>
       <c r="K39" t="n">
-        <v>258.7566453246342</v>
+        <v>111.5710975643065</v>
       </c>
       <c r="L39" t="n">
         <v>409.3944916501404</v>
@@ -37633,7 +37633,7 @@
         <v>531.0775912334412</v>
       </c>
       <c r="N39" t="n">
-        <v>413.5023617933113</v>
+        <v>560.6879095536389</v>
       </c>
       <c r="O39" t="n">
         <v>444.6087679740798</v>
@@ -37800,7 +37800,7 @@
         <v>305.7974745833408</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.6821766245794</v>
+        <v>151.6821766245795</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.57108920456352</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>258.7566453246342</v>
       </c>
       <c r="L42" t="n">
-        <v>409.3944916501404</v>
+        <v>409.3944916501405</v>
       </c>
       <c r="M42" t="n">
         <v>531.0775912334412</v>
       </c>
       <c r="N42" t="n">
-        <v>560.6879095536389</v>
+        <v>490.0734509978752</v>
       </c>
       <c r="O42" t="n">
         <v>444.6087679740798</v>
@@ -37879,7 +37879,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.17765338770664</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37949,13 +37949,13 @@
         <v>146.3189033517516</v>
       </c>
       <c r="N43" t="n">
-        <v>148.0329607020486</v>
+        <v>148.0329607020487</v>
       </c>
       <c r="O43" t="n">
-        <v>121.2408873651853</v>
+        <v>121.2408873651854</v>
       </c>
       <c r="P43" t="n">
-        <v>80.28547223800014</v>
+        <v>80.28547223800015</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38022,13 +38022,13 @@
         <v>296.4135214040257</v>
       </c>
       <c r="L44" t="n">
-        <v>420.2212022843994</v>
+        <v>420.2212022843993</v>
       </c>
       <c r="M44" t="n">
-        <v>482.9430088907039</v>
+        <v>482.9430088907038</v>
       </c>
       <c r="N44" t="n">
-        <v>475.0836175423207</v>
+        <v>475.0836175423206</v>
       </c>
       <c r="O44" t="n">
         <v>402.0136939540475</v>
@@ -38037,7 +38037,7 @@
         <v>305.7974745833408</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.6821766245795</v>
+        <v>151.6821766245793</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.57108920456355</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>258.7566453246342</v>
+        <v>188.1421867688705</v>
       </c>
       <c r="L45" t="n">
         <v>409.3944916501405</v>
       </c>
       <c r="M45" t="n">
-        <v>531.0775912334414</v>
+        <v>531.0775912334412</v>
       </c>
       <c r="N45" t="n">
-        <v>413.5023617933115</v>
+        <v>560.6879095536389</v>
       </c>
       <c r="O45" t="n">
-        <v>444.6087679740799</v>
+        <v>444.6087679740798</v>
       </c>
       <c r="P45" t="n">
-        <v>340.2452679645354</v>
+        <v>340.2452679645353</v>
       </c>
       <c r="Q45" t="n">
         <v>175.3632011480339</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.46799071334996</v>
+        <v>56.46799071334995</v>
       </c>
       <c r="L46" t="n">
         <v>128.626874880932</v>
@@ -38192,7 +38192,7 @@
         <v>121.2408873651854</v>
       </c>
       <c r="P46" t="n">
-        <v>80.28547223800017</v>
+        <v>80.28547223800015</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
